--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="655">
   <si>
     <t>id</t>
   </si>
@@ -2483,19 +2483,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M3">
-        <v>1.545454545454545</v>
+        <v>2.5</v>
       </c>
       <c r="N3">
-        <v>1.075650869654476</v>
+        <v>2.723355773061365</v>
       </c>
       <c r="O3">
-        <v>0.6960093862470137</v>
+        <v>1.089342309224546</v>
       </c>
       <c r="P3" t="s">
         <v>19</v>
@@ -2539,19 +2539,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M4">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N4">
-        <v>3.354101966249685</v>
+        <v>3.567530340063379</v>
       </c>
       <c r="O4">
-        <v>0.7453559924999299</v>
+        <v>0.7135060680126758</v>
       </c>
       <c r="P4" t="s">
         <v>20</v>
@@ -2601,13 +2601,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="N5">
-        <v>0.6000000000000001</v>
+        <v>0.5749595745760688</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>3.162277660168379</v>
       </c>
       <c r="P5" t="s">
         <v>21</v>
@@ -2657,13 +2657,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="N6">
-        <v>0.458257569495584</v>
+        <v>0.4453617714151233</v>
       </c>
       <c r="O6">
-        <v>1.527525231651947</v>
+        <v>1.632993161855452</v>
       </c>
       <c r="P6" t="s">
         <v>22</v>
@@ -2707,19 +2707,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L7">
         <v>3</v>
       </c>
       <c r="M7">
-        <v>2.6</v>
+        <v>2.545454545454545</v>
       </c>
       <c r="N7">
-        <v>2.764054992217051</v>
+        <v>2.641061644787991</v>
       </c>
       <c r="O7">
-        <v>1.063098073929635</v>
+        <v>1.037559931880996</v>
       </c>
       <c r="P7" t="s">
         <v>23</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L8">
         <v>6</v>
       </c>
       <c r="M8">
-        <v>4.6</v>
+        <v>4.363636363636363</v>
       </c>
       <c r="N8">
-        <v>4.673328578219169</v>
+        <v>4.518099505377883</v>
       </c>
       <c r="O8">
-        <v>1.015940995265037</v>
+        <v>1.035397803315765</v>
       </c>
       <c r="P8" t="s">
         <v>24</v>
@@ -2819,19 +2819,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.6</v>
+        <v>1.545454545454545</v>
       </c>
       <c r="N9">
-        <v>1.562049935181331</v>
+        <v>1.499311136588241</v>
       </c>
       <c r="O9">
-        <v>0.9762812094883319</v>
+        <v>0.9701425001453321</v>
       </c>
       <c r="P9" t="s">
         <v>25</v>
@@ -2931,19 +2931,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>4.1</v>
+        <v>4.272727272727272</v>
       </c>
       <c r="N11">
-        <v>2.662705391138869</v>
+        <v>2.596883064924672</v>
       </c>
       <c r="O11">
-        <v>0.6494403393021633</v>
+        <v>0.6077811428547106</v>
       </c>
       <c r="P11" t="s">
         <v>27</v>
@@ -2987,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -3049,13 +3049,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="N13">
-        <v>0.4898979485566357</v>
+        <v>0.4810456929208347</v>
       </c>
       <c r="O13">
-        <v>1.224744871391589</v>
+        <v>1.322875655532295</v>
       </c>
       <c r="P13" t="s">
         <v>29</v>
@@ -3099,19 +3099,19 @@
         <v>1</v>
       </c>
       <c r="K14">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L14">
         <v>5</v>
       </c>
       <c r="M14">
-        <v>6.3</v>
+        <v>5.818181818181818</v>
       </c>
       <c r="N14">
-        <v>3.769615364994153</v>
+        <v>3.903801918833434</v>
       </c>
       <c r="O14">
-        <v>0.5983516452371671</v>
+        <v>0.6709659547994965</v>
       </c>
       <c r="P14" t="s">
         <v>30</v>
@@ -3155,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.3</v>
+        <v>1.363636363636364</v>
       </c>
       <c r="N15">
-        <v>1.615549442140351</v>
+        <v>1.553455226421369</v>
       </c>
       <c r="O15">
-        <v>1.242730340107963</v>
+        <v>1.139200499375671</v>
       </c>
       <c r="P15" t="s">
         <v>31</v>
@@ -3211,19 +3211,19 @@
         <v>3</v>
       </c>
       <c r="K16">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L16">
         <v>3</v>
       </c>
       <c r="M16">
-        <v>3.8</v>
+        <v>3.636363636363636</v>
       </c>
       <c r="N16">
-        <v>2.85657137141714</v>
+        <v>2.772354669450347</v>
       </c>
       <c r="O16">
-        <v>0.7517293082676685</v>
+        <v>0.7623975340988454</v>
       </c>
       <c r="P16" t="s">
         <v>32</v>
@@ -3267,19 +3267,19 @@
         <v>3</v>
       </c>
       <c r="K17">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L17">
         <v>6</v>
       </c>
       <c r="M17">
-        <v>4.4</v>
+        <v>4.181818181818182</v>
       </c>
       <c r="N17">
-        <v>3.104834939252004</v>
+        <v>3.039682454054634</v>
       </c>
       <c r="O17">
-        <v>0.7056443043754556</v>
+        <v>0.7268805868391517</v>
       </c>
       <c r="P17" t="s">
         <v>33</v>
@@ -3385,13 +3385,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="N19">
-        <v>0.7483314773547883</v>
+        <v>0.7496555682941201</v>
       </c>
       <c r="O19">
-        <v>0.9354143466934853</v>
+        <v>1.030776406404415</v>
       </c>
       <c r="P19" t="s">
         <v>35</v>
@@ -3435,19 +3435,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L20">
         <v>6</v>
       </c>
       <c r="M20">
-        <v>5.8</v>
+        <v>5.454545454545454</v>
       </c>
       <c r="N20">
-        <v>3.370459909270543</v>
+        <v>3.394209945926268</v>
       </c>
       <c r="O20">
-        <v>0.5811137774604385</v>
+        <v>0.6222718234198158</v>
       </c>
       <c r="P20" t="s">
         <v>36</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
       </c>
       <c r="N22">
-        <v>0.7820295697311479</v>
+        <v>0.7637626158259734</v>
       </c>
       <c r="O22">
-        <v>1.433720877840438</v>
+        <v>1.527525231651947</v>
       </c>
       <c r="P22" t="s">
         <v>38</v>
@@ -3771,19 +3771,19 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L26">
         <v>2</v>
       </c>
       <c r="M26">
-        <v>1.4</v>
+        <v>1.363636363636364</v>
       </c>
       <c r="N26">
-        <v>2.90516780926679</v>
+        <v>2.772354669450346</v>
       </c>
       <c r="O26">
-        <v>2.075119863761993</v>
+        <v>2.033060090930254</v>
       </c>
       <c r="P26" t="s">
         <v>42</v>
@@ -3827,19 +3827,19 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L27">
         <v>9</v>
       </c>
       <c r="M27">
-        <v>5.1</v>
+        <v>4.818181818181818</v>
       </c>
       <c r="N27">
-        <v>5.503635162326805</v>
+        <v>5.322647697565253</v>
       </c>
       <c r="O27">
-        <v>1.079144149475844</v>
+        <v>1.104700465532411</v>
       </c>
       <c r="P27" t="s">
         <v>43</v>
@@ -3889,13 +3889,13 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="N28">
-        <v>0.3</v>
+        <v>0.2874797872880344</v>
       </c>
       <c r="O28">
-        <v>3</v>
+        <v>3.162277660168379</v>
       </c>
       <c r="P28" t="s">
         <v>44</v>
@@ -3939,19 +3939,19 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L29">
         <v>6</v>
       </c>
       <c r="M29">
-        <v>5.4</v>
+        <v>5.090909090909091</v>
       </c>
       <c r="N29">
-        <v>5.063595560468864</v>
+        <v>4.92589715787057</v>
       </c>
       <c r="O29">
-        <v>0.9377028815683082</v>
+        <v>0.9675869417245763</v>
       </c>
       <c r="P29" t="s">
         <v>45</v>
@@ -3995,19 +3995,19 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30">
-        <v>1.454545454545455</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="N30">
-        <v>0.9875254992000196</v>
+        <v>0.9537935951882998</v>
       </c>
       <c r="O30">
-        <v>0.6789237807000135</v>
+        <v>0.673266067191741</v>
       </c>
       <c r="P30" t="s">
         <v>46</v>
@@ -4051,19 +4051,19 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>1.454545454545455</v>
+        <v>2.5</v>
       </c>
       <c r="N31">
-        <v>1.558766199952931</v>
+        <v>3.201562118716424</v>
       </c>
       <c r="O31">
-        <v>1.07165176246764</v>
+        <v>1.28062484748657</v>
       </c>
       <c r="P31" t="s">
         <v>47</v>
@@ -4107,19 +4107,19 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="L32">
         <v>2</v>
       </c>
       <c r="M32">
-        <v>3.363636363636364</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="N32">
-        <v>2.772354669450347</v>
+        <v>2.671869923646899</v>
       </c>
       <c r="O32">
-        <v>0.8242135503771301</v>
+        <v>0.6970095452991911</v>
       </c>
       <c r="P32" t="s">
         <v>48</v>
@@ -4163,19 +4163,19 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
-        <v>0.2727272727272727</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="N33">
-        <v>0.6165754530113881</v>
+        <v>0.6236095644623235</v>
       </c>
       <c r="O33">
-        <v>2.260776661041756</v>
+        <v>1.870828693386971</v>
       </c>
       <c r="P33" t="s">
         <v>49</v>
@@ -4225,13 +4225,13 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.090909090909091</v>
+        <v>1</v>
       </c>
       <c r="N34">
-        <v>2.020555524626625</v>
+        <v>1.957890020745122</v>
       </c>
       <c r="O34">
-        <v>1.852175897574406</v>
+        <v>1.957890020745122</v>
       </c>
       <c r="P34" t="s">
         <v>50</v>
@@ -4443,19 +4443,19 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>1.727272727272727</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="N38">
-        <v>0.8624393618641034</v>
+        <v>0.6871842709362768</v>
       </c>
       <c r="O38">
-        <v>0.4993069989739546</v>
+        <v>0.3748277841470601</v>
       </c>
       <c r="P38" t="s">
         <v>54</v>
@@ -4555,19 +4555,19 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M40">
-        <v>2.181818181818182</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="N40">
-        <v>2.690663379445226</v>
+        <v>3.543381937578217</v>
       </c>
       <c r="O40">
-        <v>1.233220715579062</v>
+        <v>1.328768226591831</v>
       </c>
       <c r="P40" t="s">
         <v>56</v>
@@ -4611,19 +4611,19 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="L41">
         <v>3</v>
       </c>
       <c r="M41">
-        <v>2.909090909090909</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="N41">
-        <v>2.906248611481051</v>
+        <v>2.778888666755511</v>
       </c>
       <c r="O41">
-        <v>0.9990229601966112</v>
+        <v>0.8336666000266533</v>
       </c>
       <c r="P41" t="s">
         <v>57</v>
@@ -4723,19 +4723,19 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L43">
         <v>2</v>
       </c>
       <c r="M43">
-        <v>1.818181818181818</v>
+        <v>2</v>
       </c>
       <c r="N43">
-        <v>2.036850591128007</v>
+        <v>1.914854215512676</v>
       </c>
       <c r="O43">
-        <v>1.120267825120404</v>
+        <v>0.9574271077563381</v>
       </c>
       <c r="P43" t="s">
         <v>59</v>
@@ -4779,19 +4779,19 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L44">
         <v>0</v>
       </c>
       <c r="M44">
-        <v>0.8181818181818182</v>
+        <v>1.25</v>
       </c>
       <c r="N44">
-        <v>0.7158188976374373</v>
+        <v>1.587713240271471</v>
       </c>
       <c r="O44">
-        <v>0.87488976377909</v>
+        <v>1.270170592217177</v>
       </c>
       <c r="P44" t="s">
         <v>60</v>
@@ -4835,19 +4835,19 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="L45">
         <v>1</v>
       </c>
       <c r="M45">
-        <v>2</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="N45">
-        <v>2.215646837627989</v>
+        <v>2.32588095615881</v>
       </c>
       <c r="O45">
-        <v>1.107823418813995</v>
+        <v>0.9624334991001974</v>
       </c>
       <c r="P45" t="s">
         <v>61</v>
@@ -4891,19 +4891,19 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M46">
-        <v>2.363636363636364</v>
+        <v>3.25</v>
       </c>
       <c r="N46">
-        <v>2.226808857075616</v>
+        <v>3.631459761583487</v>
       </c>
       <c r="O46">
-        <v>0.9421114395319915</v>
+        <v>1.117372234333381</v>
       </c>
       <c r="P46" t="s">
         <v>62</v>
@@ -4947,19 +4947,19 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L47">
         <v>2</v>
       </c>
       <c r="M47">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N47">
-        <v>2</v>
+        <v>2.313907229485804</v>
       </c>
       <c r="O47">
-        <v>1</v>
+        <v>1.028403213104802</v>
       </c>
       <c r="P47" t="s">
         <v>63</v>
@@ -5003,19 +5003,19 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L48">
         <v>3</v>
       </c>
       <c r="M48">
-        <v>2.454545454545455</v>
+        <v>2.5</v>
       </c>
       <c r="N48">
-        <v>2.74238238709061</v>
+        <v>2.565800719723442</v>
       </c>
       <c r="O48">
-        <v>1.117266898444323</v>
+        <v>1.026320287889377</v>
       </c>
       <c r="P48" t="s">
         <v>64</v>
@@ -5059,19 +5059,19 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L49">
         <v>0</v>
       </c>
       <c r="M49">
-        <v>0.2</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="N49">
-        <v>0.4000000000000001</v>
+        <v>0.4453617714151233</v>
       </c>
       <c r="O49">
-        <v>2</v>
+        <v>1.632993161855452</v>
       </c>
       <c r="P49" t="s">
         <v>65</v>
@@ -5177,13 +5177,13 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>0.2727272727272727</v>
+        <v>0.25</v>
       </c>
       <c r="N51">
-        <v>0.6165754530113881</v>
+        <v>0.5951190357119042</v>
       </c>
       <c r="O51">
-        <v>2.260776661041756</v>
+        <v>2.380476142847617</v>
       </c>
       <c r="P51" t="s">
         <v>67</v>
@@ -5345,13 +5345,13 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>1.090909090909091</v>
+        <v>1</v>
       </c>
       <c r="N54">
-        <v>0.899954085146515</v>
+        <v>0.9128709291752769</v>
       </c>
       <c r="O54">
-        <v>0.8249579113843054</v>
+        <v>0.9128709291752769</v>
       </c>
       <c r="P54" t="s">
         <v>70</v>
@@ -5395,19 +5395,19 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L55">
         <v>0</v>
       </c>
       <c r="M55">
-        <v>0.2727272727272727</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="N55">
-        <v>0.4453617714151233</v>
+        <v>0.4930066485916347</v>
       </c>
       <c r="O55">
-        <v>1.632993161855452</v>
+        <v>1.183215956619923</v>
       </c>
       <c r="P55" t="s">
         <v>71</v>
@@ -5563,19 +5563,19 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L58">
         <v>2</v>
       </c>
       <c r="M58">
-        <v>2.181818181818182</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="N58">
-        <v>2.886274157525008</v>
+        <v>2.782634642844</v>
       </c>
       <c r="O58">
-        <v>1.322875655532296</v>
+        <v>1.33566462856512</v>
       </c>
       <c r="P58" t="s">
         <v>74</v>
@@ -5625,13 +5625,13 @@
         <v>0</v>
       </c>
       <c r="M59">
-        <v>0.2727272727272727</v>
+        <v>0.25</v>
       </c>
       <c r="N59">
-        <v>0.4453617714151233</v>
+        <v>0.4330127018922193</v>
       </c>
       <c r="O59">
-        <v>1.632993161855452</v>
+        <v>1.732050807568877</v>
       </c>
       <c r="P59" t="s">
         <v>75</v>
@@ -5675,19 +5675,19 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L60">
         <v>0</v>
       </c>
       <c r="M60">
-        <v>0.5454545454545454</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="N60">
-        <v>0.6555547773570889</v>
+        <v>0.6400954789890506</v>
       </c>
       <c r="O60">
-        <v>1.201850425154663</v>
+        <v>1.097306535409801</v>
       </c>
       <c r="P60" t="s">
         <v>76</v>
@@ -5793,13 +5793,13 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="N62">
-        <v>0.2874797872880344</v>
+        <v>0.2763853991962833</v>
       </c>
       <c r="O62">
-        <v>3.162277660168379</v>
+        <v>3.3166247903554</v>
       </c>
       <c r="P62" t="s">
         <v>78</v>
@@ -5843,19 +5843,19 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L63">
         <v>0</v>
       </c>
       <c r="M63">
-        <v>1.818181818181818</v>
+        <v>1.75</v>
       </c>
       <c r="N63">
-        <v>1.402477147321955</v>
+        <v>1.361677886530683</v>
       </c>
       <c r="O63">
-        <v>0.7713624310270756</v>
+        <v>0.7781016494461044</v>
       </c>
       <c r="P63" t="s">
         <v>79</v>
@@ -5905,13 +5905,13 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="N64">
-        <v>0.2874797872880344</v>
+        <v>0.2763853991962833</v>
       </c>
       <c r="O64">
-        <v>3.162277660168379</v>
+        <v>3.3166247903554</v>
       </c>
       <c r="P64" t="s">
         <v>80</v>
@@ -5955,19 +5955,19 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L65">
         <v>2</v>
       </c>
       <c r="M65">
-        <v>3.090909090909091</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="N65">
-        <v>2.712078889122963</v>
+        <v>2.660148283252061</v>
       </c>
       <c r="O65">
-        <v>0.8774372876574293</v>
+        <v>0.9120508399721353</v>
       </c>
       <c r="P65" t="s">
         <v>81</v>
@@ -6017,13 +6017,13 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>0.2727272727272727</v>
+        <v>0.25</v>
       </c>
       <c r="N66">
-        <v>0.6165754530113881</v>
+        <v>0.5951190357119042</v>
       </c>
       <c r="O66">
-        <v>2.260776661041756</v>
+        <v>2.380476142847617</v>
       </c>
       <c r="P66" t="s">
         <v>82</v>
@@ -6067,19 +6067,19 @@
         <v>3</v>
       </c>
       <c r="K67">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L67">
         <v>6</v>
       </c>
       <c r="M67">
-        <v>3.909090909090909</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="N67">
-        <v>4.316028171079716</v>
+        <v>4.20977698010503</v>
       </c>
       <c r="O67">
-        <v>1.10410022981109</v>
+        <v>1.148120994574099</v>
       </c>
       <c r="P67" t="s">
         <v>83</v>
@@ -6123,19 +6123,19 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L68">
         <v>1</v>
       </c>
       <c r="M68">
-        <v>2.363636363636364</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="N68">
-        <v>1.298441532462336</v>
+        <v>1.247219128924647</v>
       </c>
       <c r="O68">
-        <v>0.5493406483494498</v>
+        <v>0.5345224838248487</v>
       </c>
       <c r="P68" t="s">
         <v>84</v>
@@ -6185,13 +6185,13 @@
         <v>0</v>
       </c>
       <c r="M69">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
       </c>
       <c r="N69">
-        <v>0.7820295697311479</v>
+        <v>0.7637626158259734</v>
       </c>
       <c r="O69">
-        <v>1.433720877840438</v>
+        <v>1.527525231651947</v>
       </c>
       <c r="P69" t="s">
         <v>85</v>
@@ -6235,19 +6235,19 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L70">
         <v>2</v>
       </c>
       <c r="M70">
-        <v>2.272727272727273</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="N70">
-        <v>2.219373748315219</v>
+        <v>2.153807997220014</v>
       </c>
       <c r="O70">
-        <v>0.9765244492586962</v>
+        <v>0.9940652294861605</v>
       </c>
       <c r="P70" t="s">
         <v>86</v>
@@ -6291,19 +6291,19 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L71">
         <v>5</v>
       </c>
       <c r="M71">
-        <v>4.090909090909091</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="N71">
-        <v>3.058655243865586</v>
+        <v>2.984915781428719</v>
       </c>
       <c r="O71">
-        <v>0.7476712818338099</v>
+        <v>0.7621061569605242</v>
       </c>
       <c r="P71" t="s">
         <v>87</v>
@@ -6353,13 +6353,13 @@
         <v>4</v>
       </c>
       <c r="M72">
-        <v>2.181818181818182</v>
+        <v>2</v>
       </c>
       <c r="N72">
-        <v>3.379569144625655</v>
+        <v>3.291402943021917</v>
       </c>
       <c r="O72">
-        <v>1.548969191286759</v>
+        <v>1.645701471510958</v>
       </c>
       <c r="P72" t="s">
         <v>88</v>
@@ -6403,19 +6403,19 @@
         <v>0</v>
       </c>
       <c r="K73">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L73">
         <v>0</v>
       </c>
       <c r="M73">
-        <v>0.7272727272727273</v>
+        <v>0.75</v>
       </c>
       <c r="N73">
-        <v>1.813630667569091</v>
+        <v>1.738054467884518</v>
       </c>
       <c r="O73">
-        <v>2.4937421679075</v>
+        <v>2.317405957179357</v>
       </c>
       <c r="P73" t="s">
         <v>89</v>
@@ -6465,13 +6465,13 @@
         <v>3</v>
       </c>
       <c r="M74">
-        <v>2.090909090909091</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="N74">
-        <v>3.679292062699648</v>
+        <v>3.569741665100649</v>
       </c>
       <c r="O74">
-        <v>1.759661421291136</v>
+        <v>1.862473912226426</v>
       </c>
       <c r="P74" t="s">
         <v>90</v>
@@ -6521,13 +6521,13 @@
         <v>0</v>
       </c>
       <c r="M75">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="N75">
-        <v>0.2874797872880345</v>
+        <v>0.2763853991962833</v>
       </c>
       <c r="O75">
-        <v>3.162277660168379</v>
+        <v>3.3166247903554</v>
       </c>
       <c r="P75" t="s">
         <v>91</v>
@@ -6571,19 +6571,19 @@
         <v>0</v>
       </c>
       <c r="K76">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L76">
         <v>1</v>
       </c>
       <c r="M76">
-        <v>1.272727272727273</v>
+        <v>1.25</v>
       </c>
       <c r="N76">
-        <v>1.911254185602604</v>
+        <v>1.831438414652993</v>
       </c>
       <c r="O76">
-        <v>1.501699717259189</v>
+        <v>1.465150731722394</v>
       </c>
       <c r="P76" t="s">
         <v>92</v>
@@ -6627,19 +6627,19 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L77">
         <v>1</v>
       </c>
       <c r="M77">
-        <v>2.090909090909091</v>
+        <v>2</v>
       </c>
       <c r="N77">
-        <v>3.028787499810488</v>
+        <v>2.91547594742265</v>
       </c>
       <c r="O77">
-        <v>1.448550543387624</v>
+        <v>1.457737973711325</v>
       </c>
       <c r="P77" t="s">
         <v>93</v>
@@ -6745,13 +6745,13 @@
         <v>0</v>
       </c>
       <c r="M79">
-        <v>1.454545454545455</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="N79">
-        <v>2.18938083250769</v>
+        <v>2.13437474581095</v>
       </c>
       <c r="O79">
-        <v>1.505199322349037</v>
+        <v>1.600781059358212</v>
       </c>
       <c r="P79" t="s">
         <v>95</v>
@@ -6801,13 +6801,13 @@
         <v>1</v>
       </c>
       <c r="M80">
-        <v>1.363636363636364</v>
+        <v>1.25</v>
       </c>
       <c r="N80">
-        <v>2.346088709193444</v>
+        <v>2.277608394786075</v>
       </c>
       <c r="O80">
-        <v>1.720465053408526</v>
+        <v>1.82208671582886</v>
       </c>
       <c r="P80" t="s">
         <v>96</v>
@@ -6851,19 +6851,19 @@
         <v>3</v>
       </c>
       <c r="K81">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L81">
         <v>11</v>
       </c>
       <c r="M81">
-        <v>6.090909090909091</v>
+        <v>5.75</v>
       </c>
       <c r="N81">
-        <v>4.980955466110082</v>
+        <v>4.90110531751087</v>
       </c>
       <c r="O81">
-        <v>0.8177688078688194</v>
+        <v>0.8523661421758035</v>
       </c>
       <c r="P81" t="s">
         <v>97</v>
@@ -6907,19 +6907,19 @@
         <v>2</v>
       </c>
       <c r="K82">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M82">
-        <v>4.363636363636363</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="N82">
-        <v>2.869042516010818</v>
+        <v>3.174332825790152</v>
       </c>
       <c r="O82">
-        <v>0.6574889099191459</v>
+        <v>0.718716866216638</v>
       </c>
       <c r="P82" t="s">
         <v>98</v>
@@ -6963,19 +6963,19 @@
         <v>0</v>
       </c>
       <c r="K83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L83">
         <v>0</v>
       </c>
       <c r="M83">
-        <v>0.09090909090909091</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="N83">
-        <v>0.2874797872880345</v>
+        <v>0.372677996249965</v>
       </c>
       <c r="O83">
-        <v>3.162277660168379</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="P83" t="s">
         <v>99</v>
@@ -7019,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="K84">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L84">
         <v>0</v>
       </c>
       <c r="M84">
-        <v>2.272727272727273</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="N84">
-        <v>2.299838298304276</v>
+        <v>2.229848026709942</v>
       </c>
       <c r="O84">
-        <v>1.011928851253881</v>
+        <v>1.029160627712281</v>
       </c>
       <c r="P84" t="s">
         <v>100</v>
@@ -7081,13 +7081,13 @@
         <v>0</v>
       </c>
       <c r="M85">
-        <v>1.181818181818182</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="N85">
-        <v>2.289032420366213</v>
+        <v>2.215789300051389</v>
       </c>
       <c r="O85">
-        <v>1.936873586463719</v>
+        <v>2.045343969278205</v>
       </c>
       <c r="P85" t="s">
         <v>101</v>
@@ -7137,13 +7137,13 @@
         <v>0</v>
       </c>
       <c r="M86">
-        <v>3.181818181818182</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="N86">
-        <v>2.328408813611945</v>
+        <v>2.396467307424734</v>
       </c>
       <c r="O86">
-        <v>0.7317856271351827</v>
+        <v>0.8216459339741946</v>
       </c>
       <c r="P86" t="s">
         <v>102</v>
@@ -7187,19 +7187,19 @@
         <v>0</v>
       </c>
       <c r="K87">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L87">
         <v>3</v>
       </c>
       <c r="M87">
-        <v>2.909090909090909</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="N87">
-        <v>2.108620637226037</v>
+        <v>2.034425935955617</v>
       </c>
       <c r="O87">
-        <v>0.7248383440464502</v>
+        <v>0.718032683278453</v>
       </c>
       <c r="P87" t="s">
         <v>103</v>
@@ -7249,13 +7249,13 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>0.4545454545454545</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="N88">
-        <v>0.4979295977319692</v>
+        <v>0.4930066485916347</v>
       </c>
       <c r="O88">
-        <v>1.095445115010332</v>
+        <v>1.183215956619923</v>
       </c>
       <c r="P88" t="s">
         <v>104</v>
@@ -7299,19 +7299,19 @@
         <v>0</v>
       </c>
       <c r="K89">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L89">
         <v>3</v>
       </c>
       <c r="M89">
-        <v>3.363636363636364</v>
+        <v>3.25</v>
       </c>
       <c r="N89">
-        <v>3.444962785726621</v>
+        <v>3.319764047840348</v>
       </c>
       <c r="O89">
-        <v>1.024178125486293</v>
+        <v>1.021465860873953</v>
       </c>
       <c r="P89" t="s">
         <v>105</v>
@@ -7355,19 +7355,19 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L90">
         <v>1</v>
       </c>
       <c r="M90">
-        <v>2.636363636363636</v>
+        <v>2.5</v>
       </c>
       <c r="N90">
-        <v>2.185602778212965</v>
+        <v>2.140872096444188</v>
       </c>
       <c r="O90">
-        <v>0.8290217434600902</v>
+        <v>0.8563488385776752</v>
       </c>
       <c r="P90" t="s">
         <v>106</v>
@@ -7417,13 +7417,13 @@
         <v>0</v>
       </c>
       <c r="M91">
-        <v>1.181818181818182</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="N91">
-        <v>2.289032420366213</v>
+        <v>2.215789300051389</v>
       </c>
       <c r="O91">
-        <v>1.936873586463719</v>
+        <v>2.045343969278205</v>
       </c>
       <c r="P91" t="s">
         <v>107</v>
@@ -7473,13 +7473,13 @@
         <v>0</v>
       </c>
       <c r="M92">
-        <v>0.2727272727272727</v>
+        <v>0.25</v>
       </c>
       <c r="N92">
-        <v>0.4453617714151233</v>
+        <v>0.4330127018922193</v>
       </c>
       <c r="O92">
-        <v>1.632993161855452</v>
+        <v>1.732050807568877</v>
       </c>
       <c r="P92" t="s">
         <v>108</v>
@@ -7529,13 +7529,13 @@
         <v>1</v>
       </c>
       <c r="M93">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="N93">
-        <v>2.662876093795783</v>
+        <v>2.564447092238186</v>
       </c>
       <c r="O93">
-        <v>2.662876093795783</v>
+        <v>2.797578646078021</v>
       </c>
       <c r="P93" t="s">
         <v>109</v>
@@ -7579,19 +7579,19 @@
         <v>0</v>
       </c>
       <c r="K94">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L94">
         <v>0</v>
       </c>
       <c r="M94">
-        <v>1.181818181818182</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="N94">
-        <v>1.585054161287518</v>
+        <v>1.51840559652405</v>
       </c>
       <c r="O94">
-        <v>1.341199674935592</v>
+        <v>1.301490511306328</v>
       </c>
       <c r="P94" t="s">
         <v>110</v>
@@ -7635,19 +7635,19 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L95">
         <v>0</v>
       </c>
       <c r="M95">
-        <v>1.545454545454545</v>
+        <v>1.5</v>
       </c>
       <c r="N95">
-        <v>1.075650869654476</v>
+        <v>1.040832999733066</v>
       </c>
       <c r="O95">
-        <v>0.6960093862470137</v>
+        <v>0.6938886664887108</v>
       </c>
       <c r="P95" t="s">
         <v>111</v>
@@ -7691,19 +7691,19 @@
         <v>0</v>
       </c>
       <c r="K96">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L96">
         <v>2</v>
       </c>
       <c r="M96">
-        <v>2.909090909090909</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="N96">
-        <v>1.975050998400039</v>
+        <v>1.907587190376599</v>
       </c>
       <c r="O96">
-        <v>0.6789237807000135</v>
+        <v>0.6732660671917409</v>
       </c>
       <c r="P96" t="s">
         <v>112</v>
@@ -8027,19 +8027,19 @@
         <v>0</v>
       </c>
       <c r="K102">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L102">
         <v>0</v>
       </c>
       <c r="M102">
-        <v>1.4</v>
+        <v>1.363636363636364</v>
       </c>
       <c r="N102">
-        <v>1.2</v>
+        <v>1.149919149152138</v>
       </c>
       <c r="O102">
-        <v>0.8571428571428572</v>
+        <v>0.8432740427115678</v>
       </c>
       <c r="P102" t="s">
         <v>118</v>
@@ -8139,19 +8139,19 @@
         <v>0</v>
       </c>
       <c r="K104">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L104">
         <v>2</v>
       </c>
       <c r="M104">
-        <v>3.3</v>
+        <v>3.181818181818182</v>
       </c>
       <c r="N104">
-        <v>1.9</v>
+        <v>1.849726359034164</v>
       </c>
       <c r="O104">
-        <v>0.5757575757575758</v>
+        <v>0.5813425699821659</v>
       </c>
       <c r="P104" t="s">
         <v>120</v>
@@ -8195,19 +8195,19 @@
         <v>0</v>
       </c>
       <c r="K105">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L105">
         <v>6</v>
       </c>
       <c r="M105">
-        <v>5.1</v>
+        <v>4.727272727272728</v>
       </c>
       <c r="N105">
-        <v>4.253234063627348</v>
+        <v>4.223116236122522</v>
       </c>
       <c r="O105">
-        <v>0.8339674634563428</v>
+        <v>0.8933515114874565</v>
       </c>
       <c r="P105" t="s">
         <v>121</v>
@@ -8251,19 +8251,19 @@
         <v>0</v>
       </c>
       <c r="K106">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L106">
         <v>0</v>
       </c>
       <c r="M106">
-        <v>0.2727272727272727</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="N106">
-        <v>0.4453617714151233</v>
+        <v>0.4714045207910317</v>
       </c>
       <c r="O106">
-        <v>1.632993161855452</v>
+        <v>1.414213562373095</v>
       </c>
       <c r="P106" t="s">
         <v>122</v>
@@ -8307,19 +8307,19 @@
         <v>0</v>
       </c>
       <c r="K107">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L107">
         <v>4</v>
       </c>
       <c r="M107">
-        <v>3.4</v>
+        <v>3.181818181818182</v>
       </c>
       <c r="N107">
-        <v>3.072458299147443</v>
+        <v>3.009626428590336</v>
       </c>
       <c r="O107">
-        <v>0.903664205631601</v>
+        <v>0.9458825918426771</v>
       </c>
       <c r="P107" t="s">
         <v>123</v>
@@ -8363,19 +8363,19 @@
         <v>0</v>
       </c>
       <c r="K108">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="L108">
         <v>1</v>
       </c>
       <c r="M108">
-        <v>3.3</v>
+        <v>3.454545454545455</v>
       </c>
       <c r="N108">
-        <v>1.417744687875782</v>
+        <v>1.437398936440172</v>
       </c>
       <c r="O108">
-        <v>0.4296196023866007</v>
+        <v>0.4160891658116288</v>
       </c>
       <c r="P108" t="s">
         <v>124</v>
@@ -8419,19 +8419,19 @@
         <v>0</v>
       </c>
       <c r="K109">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L109">
         <v>0</v>
       </c>
       <c r="M109">
-        <v>2.9</v>
+        <v>2.727272727272727</v>
       </c>
       <c r="N109">
-        <v>2.467792535850613</v>
+        <v>2.415514591924804</v>
       </c>
       <c r="O109">
-        <v>0.8509629433967633</v>
+        <v>0.8856886837057616</v>
       </c>
       <c r="P109" t="s">
         <v>125</v>
@@ -8475,19 +8475,19 @@
         <v>0</v>
       </c>
       <c r="K110">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L110">
         <v>5</v>
       </c>
       <c r="M110">
-        <v>3.6</v>
+        <v>3.363636363636364</v>
       </c>
       <c r="N110">
-        <v>3.039736830714133</v>
+        <v>2.993105024209878</v>
       </c>
       <c r="O110">
-        <v>0.8443713418650369</v>
+        <v>0.8898420342245582</v>
       </c>
       <c r="P110" t="s">
         <v>126</v>
@@ -8531,19 +8531,19 @@
         <v>0</v>
       </c>
       <c r="K111">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L111">
         <v>3</v>
       </c>
       <c r="M111">
-        <v>1.545454545454545</v>
+        <v>1.5</v>
       </c>
       <c r="N111">
-        <v>2.499586742703185</v>
+        <v>2.39791576165636</v>
       </c>
       <c r="O111">
-        <v>1.617379657043238</v>
+        <v>1.598610507770906</v>
       </c>
       <c r="P111" t="s">
         <v>127</v>
@@ -8587,19 +8587,19 @@
         <v>0</v>
       </c>
       <c r="K112">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="L112">
         <v>5</v>
       </c>
       <c r="M112">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="N112">
-        <v>5.717516943569122</v>
+        <v>5.46060269733862</v>
       </c>
       <c r="O112">
-        <v>0.9690706684015461</v>
+        <v>0.9101004495564368</v>
       </c>
       <c r="P112" t="s">
         <v>128</v>
@@ -8643,19 +8643,19 @@
         <v>0</v>
       </c>
       <c r="K113">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L113">
         <v>1</v>
       </c>
       <c r="M113">
-        <v>2.6</v>
+        <v>2.454545454545455</v>
       </c>
       <c r="N113">
-        <v>2.497999199359359</v>
+        <v>2.425757102568424</v>
       </c>
       <c r="O113">
-        <v>0.9607689228305227</v>
+        <v>0.988271412157506</v>
       </c>
       <c r="P113" t="s">
         <v>129</v>
@@ -8699,19 +8699,19 @@
         <v>0</v>
       </c>
       <c r="K114">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L114">
         <v>4</v>
       </c>
       <c r="M114">
-        <v>3.9</v>
+        <v>3.636363636363636</v>
       </c>
       <c r="N114">
-        <v>2.736786436680802</v>
+        <v>2.739367122421702</v>
       </c>
       <c r="O114">
-        <v>0.7017401119694363</v>
+        <v>0.7533259586659682</v>
       </c>
       <c r="P114" t="s">
         <v>130</v>
@@ -8755,19 +8755,19 @@
         <v>0</v>
       </c>
       <c r="K115">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L115">
         <v>0</v>
       </c>
       <c r="M115">
-        <v>0.7</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="N115">
-        <v>0.458257569495584</v>
+        <v>0.4453617714151233</v>
       </c>
       <c r="O115">
-        <v>0.6546536707079773</v>
+        <v>0.6123724356957945</v>
       </c>
       <c r="P115" t="s">
         <v>131</v>
@@ -8867,19 +8867,19 @@
         <v>0</v>
       </c>
       <c r="K117">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L117">
         <v>9</v>
       </c>
       <c r="M117">
-        <v>4.7</v>
+        <v>4.454545454545454</v>
       </c>
       <c r="N117">
-        <v>4.69148164229596</v>
+        <v>4.539996723339554</v>
       </c>
       <c r="O117">
-        <v>0.9981875834672255</v>
+        <v>1.019182937892553</v>
       </c>
       <c r="P117" t="s">
         <v>133</v>
@@ -8985,13 +8985,13 @@
         <v>0</v>
       </c>
       <c r="M119">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="N119">
-        <v>1.445683229480096</v>
+        <v>1.414213562373095</v>
       </c>
       <c r="O119">
-        <v>1.314257481345542</v>
+        <v>1.414213562373095</v>
       </c>
       <c r="P119" t="s">
         <v>135</v>
@@ -9035,19 +9035,19 @@
         <v>0</v>
       </c>
       <c r="K120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L120">
         <v>0</v>
       </c>
       <c r="M120">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="N120">
-        <v>0</v>
+        <v>0.2874797872880345</v>
       </c>
       <c r="O120">
-        <v>0</v>
+        <v>3.162277660168379</v>
       </c>
       <c r="P120" t="s">
         <v>136</v>
@@ -9091,19 +9091,19 @@
         <v>0</v>
       </c>
       <c r="K121">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L121">
         <v>0</v>
       </c>
       <c r="M121">
-        <v>2.7</v>
+        <v>2.545454545454545</v>
       </c>
       <c r="N121">
-        <v>1.552417469626002</v>
+        <v>1.558766199952932</v>
       </c>
       <c r="O121">
-        <v>0.5749694331948156</v>
+        <v>0.6123724356957947</v>
       </c>
       <c r="P121" t="s">
         <v>137</v>
@@ -9259,19 +9259,19 @@
         <v>0</v>
       </c>
       <c r="K124">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L124">
         <v>0</v>
       </c>
       <c r="M124">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="N124">
-        <v>0.5</v>
+        <v>0.4979295977319692</v>
       </c>
       <c r="O124">
-        <v>1</v>
+        <v>0.9128709291752769</v>
       </c>
       <c r="P124" t="s">
         <v>140</v>
@@ -9321,13 +9321,13 @@
         <v>0</v>
       </c>
       <c r="M125">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="N125">
-        <v>1.095445115010332</v>
+        <v>1.083306844346635</v>
       </c>
       <c r="O125">
-        <v>1.095445115010332</v>
+        <v>1.191637528781298</v>
       </c>
       <c r="P125" t="s">
         <v>141</v>
@@ -9483,19 +9483,19 @@
         <v>0</v>
       </c>
       <c r="K128">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L128">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M128">
-        <v>2.3</v>
+        <v>2.545454545454545</v>
       </c>
       <c r="N128">
-        <v>2.491987158875422</v>
+        <v>2.903403531394784</v>
       </c>
       <c r="O128">
-        <v>1.083472677771923</v>
+        <v>1.140622815905094</v>
       </c>
       <c r="P128" t="s">
         <v>144</v>
@@ -9539,19 +9539,19 @@
         <v>1</v>
       </c>
       <c r="K129">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L129">
         <v>6</v>
       </c>
       <c r="M129">
-        <v>3.2</v>
+        <v>3.090909090909091</v>
       </c>
       <c r="N129">
-        <v>2.993325909419153</v>
+        <v>2.874797872880345</v>
       </c>
       <c r="O129">
-        <v>0.9354143466934852</v>
+        <v>0.9300816647554058</v>
       </c>
       <c r="P129" t="s">
         <v>145</v>
@@ -9651,19 +9651,19 @@
         <v>0</v>
       </c>
       <c r="K131">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="L131">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M131">
-        <v>2.7</v>
+        <v>3.181818181818182</v>
       </c>
       <c r="N131">
-        <v>2.830194339616981</v>
+        <v>3.098920099828966</v>
       </c>
       <c r="O131">
-        <v>1.048220125784067</v>
+        <v>0.9739463170891035</v>
       </c>
       <c r="P131" t="s">
         <v>147</v>
@@ -9763,19 +9763,19 @@
         <v>0</v>
       </c>
       <c r="K133">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L133">
         <v>0</v>
       </c>
       <c r="M133">
-        <v>1.5</v>
+        <v>1.454545454545455</v>
       </c>
       <c r="N133">
-        <v>1.360147050873544</v>
+        <v>1.304790917673393</v>
       </c>
       <c r="O133">
-        <v>0.9067647005823628</v>
+        <v>0.8970437559004576</v>
       </c>
       <c r="P133" t="s">
         <v>149</v>
@@ -9819,19 +9819,19 @@
         <v>2</v>
       </c>
       <c r="K134">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M134">
-        <v>2.5</v>
+        <v>2.636363636363636</v>
       </c>
       <c r="N134">
-        <v>3.556683848755748</v>
+        <v>3.523240431832018</v>
       </c>
       <c r="O134">
-        <v>1.422673539502299</v>
+        <v>1.336401543108697</v>
       </c>
       <c r="P134" t="s">
         <v>150</v>
@@ -9881,13 +9881,13 @@
         <v>0</v>
       </c>
       <c r="M135">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="N135">
-        <v>1.02469507659596</v>
+        <v>0.9875254992000196</v>
       </c>
       <c r="O135">
-        <v>2.04939015319192</v>
+        <v>2.172556098240043</v>
       </c>
       <c r="P135" t="s">
         <v>151</v>
@@ -9937,13 +9937,13 @@
         <v>0</v>
       </c>
       <c r="M136">
-        <v>0.4</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="N136">
-        <v>0.6633249580710801</v>
+        <v>0.6428243465332248</v>
       </c>
       <c r="O136">
-        <v>1.6583123951777</v>
+        <v>1.767766952966368</v>
       </c>
       <c r="P136" t="s">
         <v>152</v>
@@ -9987,19 +9987,19 @@
         <v>0</v>
       </c>
       <c r="K137">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L137">
         <v>0</v>
       </c>
       <c r="M137">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="N137">
-        <v>0.8306623862918074</v>
+        <v>0.8528028654224418</v>
       </c>
       <c r="O137">
-        <v>0.4371907296272671</v>
+        <v>0.4264014327112209</v>
       </c>
       <c r="P137" t="s">
         <v>153</v>
@@ -10155,19 +10155,19 @@
         <v>0</v>
       </c>
       <c r="K140">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L140">
         <v>0</v>
       </c>
       <c r="M140">
-        <v>2.9</v>
+        <v>2.818181818181818</v>
       </c>
       <c r="N140">
-        <v>3.590264614203248</v>
+        <v>3.432946834272583</v>
       </c>
       <c r="O140">
-        <v>1.238022280759741</v>
+        <v>1.218142425064465</v>
       </c>
       <c r="P140" t="s">
         <v>156</v>
@@ -10211,19 +10211,19 @@
         <v>0</v>
       </c>
       <c r="K141">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L141">
         <v>0</v>
       </c>
       <c r="M141">
-        <v>1.8</v>
+        <v>1.727272727272727</v>
       </c>
       <c r="N141">
-        <v>2.315167380558045</v>
+        <v>2.219373748315219</v>
       </c>
       <c r="O141">
-        <v>1.286204100310025</v>
+        <v>1.284900591129863</v>
       </c>
       <c r="P141" t="s">
         <v>157</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="K142">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L142">
         <v>0</v>
@@ -10276,10 +10276,10 @@
         <v>2</v>
       </c>
       <c r="N142">
-        <v>2.683281572999748</v>
+        <v>2.558408596267325</v>
       </c>
       <c r="O142">
-        <v>1.341640786499874</v>
+        <v>1.279204298133663</v>
       </c>
       <c r="P142" t="s">
         <v>158</v>
@@ -10323,19 +10323,19 @@
         <v>3</v>
       </c>
       <c r="K143">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L143">
         <v>6</v>
       </c>
       <c r="M143">
-        <v>4.5</v>
+        <v>4.272727272727272</v>
       </c>
       <c r="N143">
-        <v>4.695742752749559</v>
+        <v>4.534532332123609</v>
       </c>
       <c r="O143">
-        <v>1.043498389499902</v>
+        <v>1.061273524539568</v>
       </c>
       <c r="P143" t="s">
         <v>159</v>
@@ -10497,13 +10497,13 @@
         <v>2</v>
       </c>
       <c r="M146">
-        <v>2.5</v>
+        <v>2.272727272727273</v>
       </c>
       <c r="N146">
-        <v>1.802775637731995</v>
+        <v>1.8630819574472</v>
       </c>
       <c r="O146">
-        <v>0.7211102550927978</v>
+        <v>0.8197560612767678</v>
       </c>
       <c r="P146" t="s">
         <v>162</v>
@@ -10553,13 +10553,13 @@
         <v>5</v>
       </c>
       <c r="M147">
-        <v>2.6</v>
+        <v>2.363636363636364</v>
       </c>
       <c r="N147">
-        <v>2.939387691339814</v>
+        <v>2.90055566064433</v>
       </c>
       <c r="O147">
-        <v>1.13053372743839</v>
+        <v>1.227158164118755</v>
       </c>
       <c r="P147" t="s">
         <v>163</v>
@@ -10609,13 +10609,13 @@
         <v>0</v>
       </c>
       <c r="M148">
-        <v>1.7</v>
+        <v>1.545454545454545</v>
       </c>
       <c r="N148">
-        <v>2.051828452868319</v>
+        <v>2.016461182983531</v>
       </c>
       <c r="O148">
-        <v>1.206957913451953</v>
+        <v>1.304769000754049</v>
       </c>
       <c r="P148" t="s">
         <v>164</v>
@@ -10665,13 +10665,13 @@
         <v>2</v>
       </c>
       <c r="M149">
-        <v>1.6</v>
+        <v>1.454545454545455</v>
       </c>
       <c r="N149">
-        <v>2.457641145488902</v>
+        <v>2.3879864611934</v>
       </c>
       <c r="O149">
-        <v>1.536025715930563</v>
+        <v>1.641740692070462</v>
       </c>
       <c r="P149" t="s">
         <v>165</v>
@@ -10715,19 +10715,19 @@
         <v>0</v>
       </c>
       <c r="K150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L150">
         <v>0</v>
       </c>
       <c r="M150">
-        <v>0.2</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="N150">
-        <v>0.4000000000000001</v>
+        <v>0.4453617714151233</v>
       </c>
       <c r="O150">
-        <v>2</v>
+        <v>1.632993161855452</v>
       </c>
       <c r="P150" t="s">
         <v>166</v>
@@ -10771,19 +10771,19 @@
         <v>0</v>
       </c>
       <c r="K151">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L151">
         <v>0</v>
       </c>
       <c r="M151">
-        <v>1.3</v>
+        <v>1.545454545454545</v>
       </c>
       <c r="N151">
-        <v>1.345362404707371</v>
+        <v>1.49931113658824</v>
       </c>
       <c r="O151">
-        <v>1.034894157467209</v>
+        <v>0.9701425001453319</v>
       </c>
       <c r="P151" t="s">
         <v>167</v>
@@ -10883,19 +10883,19 @@
         <v>3</v>
       </c>
       <c r="K153">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L153">
         <v>3</v>
       </c>
       <c r="M153">
-        <v>3.3</v>
+        <v>3.181818181818182</v>
       </c>
       <c r="N153">
-        <v>3.132091952673165</v>
+        <v>3.009626428590336</v>
       </c>
       <c r="O153">
-        <v>0.9491187735373229</v>
+        <v>0.9458825918426771</v>
       </c>
       <c r="P153" t="s">
         <v>169</v>
@@ -10945,13 +10945,13 @@
         <v>0</v>
       </c>
       <c r="M154">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="N154">
-        <v>0.3</v>
+        <v>0.2874797872880344</v>
       </c>
       <c r="O154">
-        <v>3</v>
+        <v>3.162277660168379</v>
       </c>
       <c r="P154" t="s">
         <v>170</v>
@@ -11107,19 +11107,19 @@
         <v>2</v>
       </c>
       <c r="K157">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L157">
         <v>2</v>
       </c>
       <c r="M157">
-        <v>2.2</v>
+        <v>2.090909090909091</v>
       </c>
       <c r="N157">
-        <v>2.357965224510319</v>
+        <v>2.274544727853964</v>
       </c>
       <c r="O157">
-        <v>1.071802374777418</v>
+        <v>1.087825739408418</v>
       </c>
       <c r="P157" t="s">
         <v>173</v>
@@ -11169,13 +11169,13 @@
         <v>0</v>
       </c>
       <c r="M158">
-        <v>0.7</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="N158">
-        <v>0.7810249675906655</v>
+        <v>0.7713892158398701</v>
       </c>
       <c r="O158">
-        <v>1.115749953700951</v>
+        <v>1.212183053462653</v>
       </c>
       <c r="P158" t="s">
         <v>174</v>
@@ -11219,19 +11219,19 @@
         <v>0</v>
       </c>
       <c r="K159">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L159">
         <v>0</v>
       </c>
       <c r="M159">
-        <v>0.6</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="N159">
-        <v>0.4898979485566356</v>
+        <v>0.6165754530113881</v>
       </c>
       <c r="O159">
-        <v>0.816496580927726</v>
+        <v>0.8477912478906585</v>
       </c>
       <c r="P159" t="s">
         <v>175</v>
@@ -11275,19 +11275,19 @@
         <v>0</v>
       </c>
       <c r="K160">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L160">
         <v>0</v>
       </c>
       <c r="M160">
-        <v>2.3</v>
+        <v>2.272727272727273</v>
       </c>
       <c r="N160">
-        <v>1.1</v>
+        <v>1.052348809344566</v>
       </c>
       <c r="O160">
-        <v>0.4782608695652175</v>
+        <v>0.4630334761116091</v>
       </c>
       <c r="P160" t="s">
         <v>176</v>
@@ -11331,19 +11331,19 @@
         <v>0</v>
       </c>
       <c r="K161">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L161">
         <v>4</v>
       </c>
       <c r="M161">
-        <v>4.9</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="N161">
-        <v>3.419064199455752</v>
+        <v>3.447360950156098</v>
       </c>
       <c r="O161">
-        <v>0.6977682039705616</v>
+        <v>0.7584194090343416</v>
       </c>
       <c r="P161" t="s">
         <v>177</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="M162">
-        <v>2.1</v>
+        <v>1.909090909090909</v>
       </c>
       <c r="N162">
-        <v>0.7</v>
+        <v>0.899954085146515</v>
       </c>
       <c r="O162">
-        <v>0.3333333333333333</v>
+        <v>0.4714045207910316</v>
       </c>
       <c r="P162" t="s">
         <v>178</v>
@@ -11505,13 +11505,13 @@
         <v>0</v>
       </c>
       <c r="M164">
-        <v>0.6</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="N164">
-        <v>0.4898979485566356</v>
+        <v>0.4979295977319692</v>
       </c>
       <c r="O164">
-        <v>0.816496580927726</v>
+        <v>0.9128709291752769</v>
       </c>
       <c r="P164" t="s">
         <v>180</v>
@@ -11561,13 +11561,13 @@
         <v>0</v>
       </c>
       <c r="M165">
-        <v>0.2</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="N165">
-        <v>0.4</v>
+        <v>0.385694607919935</v>
       </c>
       <c r="O165">
-        <v>2</v>
+        <v>2.121320343559642</v>
       </c>
       <c r="P165" t="s">
         <v>181</v>
@@ -11611,19 +11611,19 @@
         <v>0</v>
       </c>
       <c r="K166">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L166">
         <v>1</v>
       </c>
       <c r="M166">
-        <v>2.8</v>
+        <v>2.636363636363636</v>
       </c>
       <c r="N166">
-        <v>2.227105745132009</v>
+        <v>2.185602778212965</v>
       </c>
       <c r="O166">
-        <v>0.7953949089757175</v>
+        <v>0.8290217434600902</v>
       </c>
       <c r="P166" t="s">
         <v>182</v>
@@ -11667,19 +11667,19 @@
         <v>0</v>
       </c>
       <c r="K167">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L167">
         <v>2</v>
       </c>
       <c r="M167">
-        <v>3</v>
+        <v>2.909090909090909</v>
       </c>
       <c r="N167">
-        <v>2.449489742783178</v>
+        <v>2.353123473735415</v>
       </c>
       <c r="O167">
-        <v>0.8164965809277259</v>
+        <v>0.808886194096549</v>
       </c>
       <c r="P167" t="s">
         <v>183</v>
@@ -11729,13 +11729,13 @@
         <v>1</v>
       </c>
       <c r="M168">
-        <v>2</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="N168">
-        <v>2.489979919597746</v>
+        <v>2.442732516826255</v>
       </c>
       <c r="O168">
-        <v>1.244989959798873</v>
+        <v>1.34350288425444</v>
       </c>
       <c r="P168" t="s">
         <v>184</v>
@@ -11785,13 +11785,13 @@
         <v>0</v>
       </c>
       <c r="M169">
-        <v>1.3</v>
+        <v>1.181818181818182</v>
       </c>
       <c r="N169">
-        <v>1.345362404707371</v>
+        <v>1.33608531424537</v>
       </c>
       <c r="O169">
-        <v>1.034894157467209</v>
+        <v>1.13053372743839</v>
       </c>
       <c r="P169" t="s">
         <v>185</v>
@@ -11835,19 +11835,19 @@
         <v>0</v>
       </c>
       <c r="K170">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L170">
         <v>8</v>
       </c>
       <c r="M170">
-        <v>4.7</v>
+        <v>4.454545454545454</v>
       </c>
       <c r="N170">
-        <v>2.9</v>
+        <v>2.87192163616933</v>
       </c>
       <c r="O170">
-        <v>0.6170212765957447</v>
+        <v>0.6447171019971966</v>
       </c>
       <c r="P170" t="s">
         <v>186</v>
@@ -11891,19 +11891,19 @@
         <v>0</v>
       </c>
       <c r="K171">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L171">
         <v>1</v>
       </c>
       <c r="M171">
-        <v>2.2</v>
+        <v>2.090909090909091</v>
       </c>
       <c r="N171">
-        <v>1.939071942966532</v>
+        <v>1.880741896870655</v>
       </c>
       <c r="O171">
-        <v>0.8813963377120597</v>
+        <v>0.8994852550250957</v>
       </c>
       <c r="P171" t="s">
         <v>187</v>
@@ -11947,7 +11947,7 @@
         <v>0</v>
       </c>
       <c r="K172">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L172">
         <v>1</v>
@@ -11956,10 +11956,10 @@
         <v>2</v>
       </c>
       <c r="N172">
-        <v>1.673320053068151</v>
+        <v>1.595448070434931</v>
       </c>
       <c r="O172">
-        <v>0.8366600265340756</v>
+        <v>0.7977240352174656</v>
       </c>
       <c r="P172" t="s">
         <v>188</v>
@@ -12059,19 +12059,19 @@
         <v>0</v>
       </c>
       <c r="K174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L174">
         <v>0</v>
       </c>
       <c r="M174">
-        <v>0.1</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="N174">
-        <v>0.3</v>
+        <v>0.385694607919935</v>
       </c>
       <c r="O174">
-        <v>3</v>
+        <v>2.121320343559642</v>
       </c>
       <c r="P174" t="s">
         <v>190</v>
@@ -12233,13 +12233,13 @@
         <v>2</v>
       </c>
       <c r="M177">
-        <v>0.8181818181818182</v>
+        <v>0.75</v>
       </c>
       <c r="N177">
-        <v>2.58731808559231</v>
+        <v>2.48746859276655</v>
       </c>
       <c r="O177">
-        <v>3.162277660168379</v>
+        <v>3.3166247903554</v>
       </c>
       <c r="P177" t="s">
         <v>193</v>
@@ -12289,13 +12289,13 @@
         <v>0</v>
       </c>
       <c r="M178">
-        <v>0.6363636363636364</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="N178">
-        <v>0.4810456929208346</v>
+        <v>0.4930066485916347</v>
       </c>
       <c r="O178">
-        <v>0.7559289460184544</v>
+        <v>0.8451542547285166</v>
       </c>
       <c r="P178" t="s">
         <v>194</v>
@@ -12339,19 +12339,19 @@
         <v>0</v>
       </c>
       <c r="K179">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="L179">
         <v>0</v>
       </c>
       <c r="M179">
-        <v>0.6363636363636364</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="N179">
-        <v>0.8813963377120598</v>
+        <v>1.70579079087156</v>
       </c>
       <c r="O179">
-        <v>1.385051387833237</v>
+        <v>1.574576114650671</v>
       </c>
       <c r="P179" t="s">
         <v>195</v>
@@ -12457,13 +12457,13 @@
         <v>0</v>
       </c>
       <c r="M181">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="N181">
-        <v>0.2874797872880344</v>
+        <v>0.2763853991962833</v>
       </c>
       <c r="O181">
-        <v>3.162277660168379</v>
+        <v>3.3166247903554</v>
       </c>
       <c r="P181" t="s">
         <v>197</v>
@@ -12513,13 +12513,13 @@
         <v>0</v>
       </c>
       <c r="M182">
-        <v>0.1818181818181818</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="N182">
-        <v>0.3856946079199349</v>
+        <v>0.3726779962499649</v>
       </c>
       <c r="O182">
-        <v>2.121320343559642</v>
+        <v>2.236067977499789</v>
       </c>
       <c r="P182" t="s">
         <v>198</v>
@@ -12563,19 +12563,19 @@
         <v>0</v>
       </c>
       <c r="K183">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L183">
         <v>3</v>
       </c>
       <c r="M183">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N183">
-        <v>2.558408596267325</v>
+        <v>2.58602010819715</v>
       </c>
       <c r="O183">
-        <v>0.8528028654224418</v>
+        <v>0.7956984948298924</v>
       </c>
       <c r="P183" t="s">
         <v>199</v>
@@ -12731,19 +12731,19 @@
         <v>0</v>
       </c>
       <c r="K186">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L186">
         <v>0</v>
       </c>
       <c r="M186">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="N186">
-        <v>0.6555547773570889</v>
+        <v>0.6454972243679028</v>
       </c>
       <c r="O186">
-        <v>1.442220510185596</v>
+        <v>1.290994448735806</v>
       </c>
       <c r="P186" t="s">
         <v>202</v>
@@ -12787,19 +12787,19 @@
         <v>0</v>
       </c>
       <c r="K187">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="L187">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M187">
-        <v>3.545454545454545</v>
+        <v>4.25</v>
       </c>
       <c r="N187">
-        <v>2.31059364129797</v>
+        <v>3.217789096051304</v>
       </c>
       <c r="O187">
-        <v>0.6517058988276326</v>
+        <v>0.7571268461297185</v>
       </c>
       <c r="P187" t="s">
         <v>203</v>
@@ -12905,13 +12905,13 @@
         <v>0</v>
       </c>
       <c r="M189">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="N189">
-        <v>0.2874797872880344</v>
+        <v>0.2763853991962833</v>
       </c>
       <c r="O189">
-        <v>3.162277660168379</v>
+        <v>3.3166247903554</v>
       </c>
       <c r="P189" t="s">
         <v>205</v>
@@ -12955,19 +12955,19 @@
         <v>0</v>
       </c>
       <c r="K190">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L190">
         <v>2</v>
       </c>
       <c r="M190">
-        <v>2.818181818181818</v>
+        <v>2.75</v>
       </c>
       <c r="N190">
-        <v>1.991718390927877</v>
+        <v>1.920286436967152</v>
       </c>
       <c r="O190">
-        <v>0.7067387838776338</v>
+        <v>0.6982859770789643</v>
       </c>
       <c r="P190" t="s">
         <v>206</v>
@@ -13011,19 +13011,19 @@
         <v>0</v>
       </c>
       <c r="K191">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L191">
         <v>0</v>
       </c>
       <c r="M191">
-        <v>0.6363636363636364</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N191">
-        <v>0.8813963377120598</v>
+        <v>0.8498365855987975</v>
       </c>
       <c r="O191">
-        <v>1.385051387833237</v>
+        <v>1.274754878398196</v>
       </c>
       <c r="P191" t="s">
         <v>207</v>
@@ -13067,19 +13067,19 @@
         <v>0</v>
       </c>
       <c r="K192">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="L192">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M192">
-        <v>0.2727272727272727</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="N192">
-        <v>0.4453617714151233</v>
+        <v>2.177855724228663</v>
       </c>
       <c r="O192">
-        <v>1.632993161855452</v>
+        <v>2.375842608249451</v>
       </c>
       <c r="P192" t="s">
         <v>208</v>
@@ -13129,13 +13129,13 @@
         <v>2</v>
       </c>
       <c r="M193">
-        <v>1.090909090909091</v>
+        <v>1</v>
       </c>
       <c r="N193">
-        <v>2.274544727853964</v>
+        <v>2.19848432637882</v>
       </c>
       <c r="O193">
-        <v>2.084999333866134</v>
+        <v>2.19848432637882</v>
       </c>
       <c r="P193" t="s">
         <v>209</v>
@@ -13185,13 +13185,13 @@
         <v>0</v>
       </c>
       <c r="M194">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="N194">
-        <v>0.2874797872880344</v>
+        <v>0.2763853991962833</v>
       </c>
       <c r="O194">
-        <v>3.162277660168379</v>
+        <v>3.3166247903554</v>
       </c>
       <c r="P194" t="s">
         <v>210</v>
@@ -13235,19 +13235,19 @@
         <v>0</v>
       </c>
       <c r="K195">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="L195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M195">
-        <v>2.272727272727273</v>
+        <v>3</v>
       </c>
       <c r="N195">
-        <v>1.8630819574472</v>
+        <v>3</v>
       </c>
       <c r="O195">
-        <v>0.8197560612767678</v>
+        <v>1</v>
       </c>
       <c r="P195" t="s">
         <v>211</v>
@@ -13291,19 +13291,19 @@
         <v>0</v>
       </c>
       <c r="K196">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="L196">
         <v>2</v>
       </c>
       <c r="M196">
-        <v>2.454545454545455</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="N196">
-        <v>2.31059364129797</v>
+        <v>2.691292543659191</v>
       </c>
       <c r="O196">
-        <v>0.9413529649732469</v>
+        <v>0.9227288721117226</v>
       </c>
       <c r="P196" t="s">
         <v>212</v>
@@ -13409,13 +13409,13 @@
         <v>0</v>
       </c>
       <c r="M198">
-        <v>1.818181818181818</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="N198">
-        <v>2.124240262826895</v>
+        <v>2.094967514996089</v>
       </c>
       <c r="O198">
-        <v>1.168332144554792</v>
+        <v>1.256980508997653</v>
       </c>
       <c r="P198" t="s">
         <v>214</v>
@@ -13515,19 +13515,19 @@
         <v>0</v>
       </c>
       <c r="K200">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="L200">
         <v>2</v>
       </c>
       <c r="M200">
-        <v>2.545454545454545</v>
+        <v>2.75</v>
       </c>
       <c r="N200">
-        <v>2.18938083250769</v>
+        <v>2.203217344400381</v>
       </c>
       <c r="O200">
-        <v>0.8601138984851641</v>
+        <v>0.8011699434183204</v>
       </c>
       <c r="P200" t="s">
         <v>216</v>
@@ -13571,19 +13571,19 @@
         <v>0</v>
       </c>
       <c r="K201">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L201">
         <v>0</v>
       </c>
       <c r="M201">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="N201">
-        <v>0.2874797872880345</v>
+        <v>0</v>
       </c>
       <c r="O201">
-        <v>0.3162277660168379</v>
+        <v>0</v>
       </c>
       <c r="P201" t="s">
         <v>217</v>
@@ -13627,19 +13627,19 @@
         <v>0</v>
       </c>
       <c r="K202">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="L202">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M202">
-        <v>1.272727272727273</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="N202">
-        <v>1.600619714696274</v>
+        <v>2.361437885884126</v>
       </c>
       <c r="O202">
-        <v>1.257629775832787</v>
+        <v>1.232054549156935</v>
       </c>
       <c r="P202" t="s">
         <v>218</v>
@@ -13748,7 +13748,7 @@
         <v>0</v>
       </c>
       <c r="N204">
-        <v>0.7385489458759964</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="O204" t="s">
         <v>17</v>
@@ -13795,19 +13795,19 @@
         <v>0</v>
       </c>
       <c r="K205">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L205">
         <v>0</v>
       </c>
       <c r="M205">
-        <v>2.272727272727273</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="N205">
-        <v>1.710444338384253</v>
+        <v>1.840893502864544</v>
       </c>
       <c r="O205">
-        <v>0.7525955088890711</v>
+        <v>0.6903350635742039</v>
       </c>
       <c r="P205" t="s">
         <v>221</v>
@@ -13851,19 +13851,19 @@
         <v>0</v>
       </c>
       <c r="K206">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="L206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M206">
-        <v>2.818181818181818</v>
+        <v>3.5</v>
       </c>
       <c r="N206">
-        <v>2.551939790476037</v>
+        <v>2.661453237111885</v>
       </c>
       <c r="O206">
-        <v>0.9055270224269807</v>
+        <v>0.7604152106033958</v>
       </c>
       <c r="P206" t="s">
         <v>222</v>
@@ -14075,19 +14075,19 @@
         <v>0</v>
       </c>
       <c r="K210">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L210">
         <v>0</v>
       </c>
       <c r="M210">
-        <v>1.818181818181818</v>
+        <v>1.75</v>
       </c>
       <c r="N210">
-        <v>2.289032420366213</v>
+        <v>2.203217344400381</v>
       </c>
       <c r="O210">
-        <v>1.258967831201417</v>
+        <v>1.258981339657361</v>
       </c>
       <c r="P210" t="s">
         <v>226</v>
@@ -14131,19 +14131,19 @@
         <v>1</v>
       </c>
       <c r="K211">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="L211">
         <v>8</v>
       </c>
       <c r="M211">
-        <v>4.363636363636363</v>
+        <v>5</v>
       </c>
       <c r="N211">
-        <v>4.312196809320517</v>
+        <v>3.937003937005906</v>
       </c>
       <c r="O211">
-        <v>0.9882117688026186</v>
+        <v>0.7874007874011811</v>
       </c>
       <c r="P211" t="s">
         <v>227</v>
@@ -14187,19 +14187,19 @@
         <v>0</v>
       </c>
       <c r="K212">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L212">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M212">
-        <v>2.181818181818182</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="N212">
-        <v>2.551939790476037</v>
+        <v>3.248931448269655</v>
       </c>
       <c r="O212">
-        <v>1.16963907063485</v>
+        <v>0.9746794344808963</v>
       </c>
       <c r="P212" t="s">
         <v>228</v>
@@ -14243,19 +14243,19 @@
         <v>0</v>
       </c>
       <c r="K213">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L213">
         <v>0</v>
       </c>
       <c r="M213">
-        <v>0.1818181818181818</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="N213">
-        <v>0.385694607919935</v>
+        <v>0.6400954789890506</v>
       </c>
       <c r="O213">
-        <v>2.121320343559642</v>
+        <v>1.536229149573721</v>
       </c>
       <c r="P213" t="s">
         <v>229</v>
@@ -14305,13 +14305,13 @@
         <v>0</v>
       </c>
       <c r="M214">
-        <v>0.6363636363636364</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="N214">
-        <v>1.720080720765863</v>
+        <v>1.656217242862649</v>
       </c>
       <c r="O214">
-        <v>2.702983989774928</v>
+        <v>2.839229559193113</v>
       </c>
       <c r="P214" t="s">
         <v>230</v>
@@ -14417,13 +14417,13 @@
         <v>0</v>
       </c>
       <c r="M216">
-        <v>1.727272727272727</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="N216">
-        <v>1.8630819574472</v>
+        <v>1.846543317180028</v>
       </c>
       <c r="O216">
-        <v>1.0786263964168</v>
+        <v>1.166237884534755</v>
       </c>
       <c r="P216" t="s">
         <v>232</v>
@@ -14473,13 +14473,13 @@
         <v>0</v>
       </c>
       <c r="M217">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="N217">
-        <v>0.2874797872880345</v>
+        <v>0.2763853991962833</v>
       </c>
       <c r="O217">
-        <v>3.162277660168379</v>
+        <v>3.3166247903554</v>
       </c>
       <c r="P217" t="s">
         <v>233</v>
@@ -14523,19 +14523,19 @@
         <v>0</v>
       </c>
       <c r="K218">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L218">
         <v>0</v>
       </c>
       <c r="M218">
-        <v>1.090909090909091</v>
+        <v>1.5</v>
       </c>
       <c r="N218">
-        <v>1.621141318193364</v>
+        <v>2.06155281280883</v>
       </c>
       <c r="O218">
-        <v>1.486046208343918</v>
+        <v>1.374368541872554</v>
       </c>
       <c r="P218" t="s">
         <v>234</v>
@@ -14641,13 +14641,13 @@
         <v>0</v>
       </c>
       <c r="M220">
-        <v>0.6363636363636364</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="N220">
-        <v>1.431637795274875</v>
+        <v>1.381926995981417</v>
       </c>
       <c r="O220">
-        <v>2.249716535431946</v>
+        <v>2.369017707396714</v>
       </c>
       <c r="P220" t="s">
         <v>236</v>
@@ -14691,19 +14691,19 @@
         <v>0</v>
       </c>
       <c r="K221">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="L221">
         <v>2</v>
       </c>
       <c r="M221">
-        <v>2.363636363636364</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="N221">
-        <v>2.346088709193444</v>
+        <v>2.139249608832239</v>
       </c>
       <c r="O221">
-        <v>0.9925759923510724</v>
+        <v>0.8280966227737699</v>
       </c>
       <c r="P221" t="s">
         <v>237</v>
@@ -14747,19 +14747,19 @@
         <v>0</v>
       </c>
       <c r="K222">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L222">
         <v>0</v>
       </c>
       <c r="M222">
-        <v>0.9</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="N222">
-        <v>1.813835714721705</v>
+        <v>1.729663417312768</v>
       </c>
       <c r="O222">
-        <v>2.01537301635745</v>
+        <v>1.902629759044045</v>
       </c>
       <c r="P222" t="s">
         <v>238</v>
@@ -14803,19 +14803,19 @@
         <v>0</v>
       </c>
       <c r="K223">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L223">
         <v>0</v>
       </c>
       <c r="M223">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="N223">
-        <v>0.9219544457292888</v>
+        <v>0.8907235428302467</v>
       </c>
       <c r="O223">
-        <v>1.843908891458578</v>
+        <v>1.632993161855452</v>
       </c>
       <c r="P223" t="s">
         <v>239</v>
@@ -14859,19 +14859,19 @@
         <v>0</v>
       </c>
       <c r="K224">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L224">
         <v>0</v>
       </c>
       <c r="M224">
-        <v>0.8</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="N224">
-        <v>0.4</v>
+        <v>0.2874797872880345</v>
       </c>
       <c r="O224">
-        <v>0.5</v>
+        <v>0.3162277660168379</v>
       </c>
       <c r="P224" t="s">
         <v>240</v>
@@ -14921,13 +14921,13 @@
         <v>0</v>
       </c>
       <c r="M225">
-        <v>0.3</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="N225">
-        <v>0.4582575694955839</v>
+        <v>0.4453617714151233</v>
       </c>
       <c r="O225">
-        <v>1.527525231651947</v>
+        <v>1.632993161855452</v>
       </c>
       <c r="P225" t="s">
         <v>241</v>
@@ -14971,19 +14971,19 @@
         <v>0</v>
       </c>
       <c r="K226">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="L226">
         <v>5</v>
       </c>
       <c r="M226">
-        <v>4.3</v>
+        <v>4.636363636363637</v>
       </c>
       <c r="N226">
-        <v>5.21632054229799</v>
+        <v>4.959338798903947</v>
       </c>
       <c r="O226">
-        <v>1.213097800534416</v>
+        <v>1.069661309567518</v>
       </c>
       <c r="P226" t="s">
         <v>242</v>
@@ -15083,19 +15083,19 @@
         <v>0</v>
       </c>
       <c r="K228">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L228">
         <v>0</v>
       </c>
       <c r="M228">
-        <v>1</v>
+        <v>1.181818181818182</v>
       </c>
       <c r="N228">
-        <v>1.549193338482967</v>
+        <v>1.465865045145191</v>
       </c>
       <c r="O228">
-        <v>1.549193338482967</v>
+        <v>1.240347345892085</v>
       </c>
       <c r="P228" t="s">
         <v>244</v>
@@ -15139,19 +15139,19 @@
         <v>0</v>
       </c>
       <c r="K229">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L229">
         <v>2</v>
       </c>
       <c r="M229">
-        <v>1.4</v>
+        <v>1.363636363636364</v>
       </c>
       <c r="N229">
-        <v>2.33238075793812</v>
+        <v>2.226808857075616</v>
       </c>
       <c r="O229">
-        <v>1.665986255670086</v>
+        <v>1.632993161855452</v>
       </c>
       <c r="P229" t="s">
         <v>245</v>
@@ -15251,19 +15251,19 @@
         <v>0</v>
       </c>
       <c r="K231">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L231">
         <v>0</v>
       </c>
       <c r="M231">
-        <v>2</v>
+        <v>1.636363636363636</v>
       </c>
       <c r="N231">
-        <v>1.949358868961793</v>
+        <v>2.307014098263549</v>
       </c>
       <c r="O231">
-        <v>0.9746794344808963</v>
+        <v>1.409841948938835</v>
       </c>
       <c r="P231" t="s">
         <v>247</v>
@@ -15307,19 +15307,19 @@
         <v>0</v>
       </c>
       <c r="K232">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L232">
         <v>0</v>
       </c>
       <c r="M232">
-        <v>1.181818181818182</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="N232">
-        <v>0.8331955809010618</v>
+        <v>0.7993052538854533</v>
       </c>
       <c r="O232">
-        <v>0.7050116453778215</v>
+        <v>0.6851187890446742</v>
       </c>
       <c r="P232" t="s">
         <v>248</v>
@@ -15419,19 +15419,19 @@
         <v>0</v>
       </c>
       <c r="K234">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L234">
         <v>5</v>
       </c>
       <c r="M234">
-        <v>3.6</v>
+        <v>3.818181818181818</v>
       </c>
       <c r="N234">
-        <v>3.8</v>
+        <v>3.562894171320986</v>
       </c>
       <c r="O234">
-        <v>1.055555555555556</v>
+        <v>0.9331389496316869</v>
       </c>
       <c r="P234" t="s">
         <v>250</v>
@@ -15531,19 +15531,19 @@
         <v>0</v>
       </c>
       <c r="K236">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L236">
         <v>4</v>
       </c>
       <c r="M236">
-        <v>3.3</v>
+        <v>3.090909090909091</v>
       </c>
       <c r="N236">
-        <v>2.451530134426252</v>
+        <v>2.429161675615889</v>
       </c>
       <c r="O236">
-        <v>0.7428879195231068</v>
+        <v>0.7859052479933758</v>
       </c>
       <c r="P236" t="s">
         <v>252</v>
@@ -15643,19 +15643,19 @@
         <v>0</v>
       </c>
       <c r="K238">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L238">
         <v>0</v>
       </c>
       <c r="M238">
-        <v>0.3</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="N238">
-        <v>0.4582575694955839</v>
+        <v>0.6555547773570889</v>
       </c>
       <c r="O238">
-        <v>1.527525231651947</v>
+        <v>1.442220510185596</v>
       </c>
       <c r="P238" t="s">
         <v>254</v>
@@ -15699,19 +15699,19 @@
         <v>0</v>
       </c>
       <c r="K239">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L239">
         <v>3</v>
       </c>
       <c r="M239">
-        <v>3.3</v>
+        <v>3.181818181818182</v>
       </c>
       <c r="N239">
-        <v>3.132091952673165</v>
+        <v>2.979267201486171</v>
       </c>
       <c r="O239">
-        <v>0.9491187735373229</v>
+        <v>0.9363411204670824</v>
       </c>
       <c r="P239" t="s">
         <v>255</v>
@@ -15755,19 +15755,19 @@
         <v>0</v>
       </c>
       <c r="K240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L240">
         <v>0</v>
       </c>
       <c r="M240">
-        <v>0.1</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="N240">
-        <v>0.3</v>
+        <v>0.385694607919935</v>
       </c>
       <c r="O240">
-        <v>3</v>
+        <v>2.121320343559642</v>
       </c>
       <c r="P240" t="s">
         <v>256</v>
@@ -15811,19 +15811,19 @@
         <v>0</v>
       </c>
       <c r="K241">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="L241">
         <v>0</v>
       </c>
       <c r="M241">
-        <v>0.5</v>
+        <v>1.181818181818182</v>
       </c>
       <c r="N241">
-        <v>0.5</v>
+        <v>1.641406371387981</v>
       </c>
       <c r="O241">
-        <v>1</v>
+        <v>1.388882314251368</v>
       </c>
       <c r="P241" t="s">
         <v>257</v>
@@ -15923,19 +15923,19 @@
         <v>0</v>
       </c>
       <c r="K243">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="L243">
         <v>0</v>
       </c>
       <c r="M243">
-        <v>0.7</v>
+        <v>1.090909090909091</v>
       </c>
       <c r="N243">
-        <v>0.458257569495584</v>
+        <v>0.9958591954639384</v>
       </c>
       <c r="O243">
-        <v>0.6546536707079773</v>
+        <v>0.9128709291752769</v>
       </c>
       <c r="P243" t="s">
         <v>259</v>
@@ -16035,19 +16035,19 @@
         <v>0</v>
       </c>
       <c r="K245">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L245">
         <v>0</v>
       </c>
       <c r="M245">
-        <v>1.9</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="N245">
-        <v>2.211334438749598</v>
+        <v>2.124240262826895</v>
       </c>
       <c r="O245">
-        <v>1.163860230920841</v>
+        <v>1.168332144554792</v>
       </c>
       <c r="P245" t="s">
         <v>261</v>
@@ -16091,19 +16091,19 @@
         <v>0</v>
       </c>
       <c r="K246">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L246">
         <v>1</v>
       </c>
       <c r="M246">
-        <v>2.1</v>
+        <v>2.181818181818182</v>
       </c>
       <c r="N246">
-        <v>2.211334438749598</v>
+        <v>2.036850591128007</v>
       </c>
       <c r="O246">
-        <v>1.053016399404571</v>
+        <v>0.93355652093367</v>
       </c>
       <c r="P246" t="s">
         <v>262</v>
@@ -16147,19 +16147,19 @@
         <v>0</v>
       </c>
       <c r="K247">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L247">
         <v>0</v>
       </c>
       <c r="M247">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N247">
-        <v>2.3</v>
+        <v>2.04494943258218</v>
       </c>
       <c r="O247">
-        <v>0.7931034482758622</v>
+        <v>0.6816498108607267</v>
       </c>
       <c r="P247" t="s">
         <v>263</v>
@@ -16321,13 +16321,13 @@
         <v>0</v>
       </c>
       <c r="M250">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="N250">
-        <v>1.758098145983065</v>
+        <v>1.70579079087156</v>
       </c>
       <c r="O250">
-        <v>1.758098145983065</v>
+        <v>1.860862680950793</v>
       </c>
       <c r="P250" t="s">
         <v>266</v>
@@ -16427,19 +16427,19 @@
         <v>0</v>
       </c>
       <c r="K252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L252">
         <v>0</v>
       </c>
       <c r="M252">
-        <v>0.09090909090909091</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="N252">
-        <v>0.2874797872880344</v>
+        <v>0.372677996249965</v>
       </c>
       <c r="O252">
-        <v>3.162277660168379</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="P252" t="s">
         <v>268</v>
@@ -16483,19 +16483,19 @@
         <v>0</v>
       </c>
       <c r="K253">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L253">
         <v>0</v>
       </c>
       <c r="M253">
-        <v>0.09090909090909091</v>
+        <v>0.25</v>
       </c>
       <c r="N253">
-        <v>0.2874797872880345</v>
+        <v>0.4330127018922193</v>
       </c>
       <c r="O253">
-        <v>3.162277660168379</v>
+        <v>1.732050807568877</v>
       </c>
       <c r="P253" t="s">
         <v>269</v>
@@ -16595,19 +16595,19 @@
         <v>0</v>
       </c>
       <c r="K255">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="L255">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M255">
-        <v>2.090909090909091</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="N255">
-        <v>2.429161675615889</v>
+        <v>3.223179934302286</v>
       </c>
       <c r="O255">
-        <v>1.161772975294556</v>
+        <v>0.9669539802906857</v>
       </c>
       <c r="P255" t="s">
         <v>271</v>
@@ -16651,19 +16651,19 @@
         <v>0</v>
       </c>
       <c r="K256">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L256">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M256">
-        <v>2.181818181818182</v>
+        <v>3</v>
       </c>
       <c r="N256">
-        <v>1.849726359034164</v>
+        <v>2.677063067368168</v>
       </c>
       <c r="O256">
-        <v>0.8477912478906585</v>
+        <v>0.8923543557893895</v>
       </c>
       <c r="P256" t="s">
         <v>272</v>
@@ -16763,19 +16763,19 @@
         <v>0</v>
       </c>
       <c r="K258">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="L258">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M258">
-        <v>1</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="N258">
-        <v>1.651445647689541</v>
+        <v>2.91070819942883</v>
       </c>
       <c r="O258">
-        <v>1.651445647689541</v>
+        <v>1.343403784351768</v>
       </c>
       <c r="P258" t="s">
         <v>274</v>
@@ -16819,19 +16819,19 @@
         <v>0</v>
       </c>
       <c r="K259">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="L259">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M259">
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="N259">
-        <v>3.302891295379082</v>
+        <v>3.897114317029974</v>
       </c>
       <c r="O259">
-        <v>1.100963765126361</v>
+        <v>0.916968074595288</v>
       </c>
       <c r="P259" t="s">
         <v>275</v>
@@ -16875,19 +16875,19 @@
         <v>0</v>
       </c>
       <c r="K260">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L260">
         <v>2</v>
       </c>
       <c r="M260">
-        <v>2.818181818181818</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="N260">
-        <v>1.849726359034164</v>
+        <v>2.099933861392359</v>
       </c>
       <c r="O260">
-        <v>0.6563545144959936</v>
+        <v>0.6146147887002026</v>
       </c>
       <c r="P260" t="s">
         <v>276</v>
@@ -16931,19 +16931,19 @@
         <v>0</v>
       </c>
       <c r="K261">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L261">
         <v>0</v>
       </c>
       <c r="M261">
-        <v>0.7272727272727273</v>
+        <v>0.75</v>
       </c>
       <c r="N261">
-        <v>1.710444338384253</v>
+        <v>1.6393596310755</v>
       </c>
       <c r="O261">
-        <v>2.351860965278347</v>
+        <v>2.185812841434</v>
       </c>
       <c r="P261" t="s">
         <v>277</v>
@@ -16987,19 +16987,19 @@
         <v>0</v>
       </c>
       <c r="K262">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="L262">
         <v>4</v>
       </c>
       <c r="M262">
-        <v>4.545454545454546</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="N262">
-        <v>5.033770254511682</v>
+        <v>4.913134324327892</v>
       </c>
       <c r="O262">
-        <v>1.10742945599257</v>
+        <v>1.016510549860943</v>
       </c>
       <c r="P262" t="s">
         <v>278</v>
@@ -17043,19 +17043,19 @@
         <v>0</v>
       </c>
       <c r="K263">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L263">
         <v>0</v>
       </c>
       <c r="M263">
-        <v>1.454545454545455</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="N263">
-        <v>1.776801844153824</v>
+        <v>1.70579079087156</v>
       </c>
       <c r="O263">
-        <v>1.221551267855754</v>
+        <v>1.204087617085807</v>
       </c>
       <c r="P263" t="s">
         <v>279</v>
@@ -17155,19 +17155,19 @@
         <v>0</v>
       </c>
       <c r="K265">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="L265">
         <v>0</v>
       </c>
       <c r="M265">
-        <v>2.454545454545455</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="N265">
-        <v>2.5712973861329</v>
+        <v>3.06752705321766</v>
       </c>
       <c r="O265">
-        <v>1.047565601757848</v>
+        <v>0.8560540613630679</v>
       </c>
       <c r="P265" t="s">
         <v>281</v>
@@ -17217,13 +17217,13 @@
         <v>0</v>
       </c>
       <c r="M266">
-        <v>1.181818181818182</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="N266">
-        <v>0.8331955809010618</v>
+        <v>0.8620067027323833</v>
       </c>
       <c r="O266">
-        <v>0.7050116453778215</v>
+        <v>0.7956984948298924</v>
       </c>
       <c r="P266" t="s">
         <v>282</v>
@@ -17267,19 +17267,19 @@
         <v>0</v>
       </c>
       <c r="K267">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="L267">
         <v>3</v>
       </c>
       <c r="M267">
-        <v>2.818181818181818</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="N267">
-        <v>2.690663379445226</v>
+        <v>2.660148283252061</v>
       </c>
       <c r="O267">
-        <v>0.9547515217386285</v>
+        <v>0.7423669627680169</v>
       </c>
       <c r="P267" t="s">
         <v>283</v>
@@ -17379,19 +17379,19 @@
         <v>0</v>
       </c>
       <c r="K269">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="L269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M269">
-        <v>2.090909090909091</v>
+        <v>3</v>
       </c>
       <c r="N269">
-        <v>2.020555524626625</v>
+        <v>2.41522945769824</v>
       </c>
       <c r="O269">
-        <v>0.9663526422127335</v>
+        <v>0.8050764858994133</v>
       </c>
       <c r="P269" t="s">
         <v>285</v>
@@ -17435,19 +17435,19 @@
         <v>0</v>
       </c>
       <c r="K270">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L270">
         <v>0</v>
       </c>
       <c r="M270">
-        <v>0.9090909090909091</v>
+        <v>1.25</v>
       </c>
       <c r="N270">
-        <v>0.9958591954639383</v>
+        <v>1.089724735885168</v>
       </c>
       <c r="O270">
-        <v>1.095445115010332</v>
+        <v>0.8717797887081348</v>
       </c>
       <c r="P270" t="s">
         <v>286</v>
@@ -17491,19 +17491,19 @@
         <v>0</v>
       </c>
       <c r="K271">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L271">
         <v>0</v>
       </c>
       <c r="M271">
-        <v>-0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="N271">
-        <v>1.083306844346635</v>
-      </c>
-      <c r="O271">
-        <v>11.91637528781298</v>
+        <v>1.080123449734643</v>
+      </c>
+      <c r="O271" t="s">
+        <v>17</v>
       </c>
       <c r="P271" t="s">
         <v>287</v>
@@ -17547,19 +17547,19 @@
         <v>0</v>
       </c>
       <c r="K272">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L272">
         <v>2</v>
       </c>
       <c r="M272">
-        <v>2.545454545454545</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="N272">
-        <v>3.28532927265321</v>
+        <v>3.094574104604523</v>
       </c>
       <c r="O272">
-        <v>1.290665071399475</v>
+        <v>1.197899653395299</v>
       </c>
       <c r="P272" t="s">
         <v>288</v>
@@ -17609,13 +17609,13 @@
         <v>0</v>
       </c>
       <c r="M273">
-        <v>0.4</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="N273">
-        <v>0.9165151389911681</v>
+        <v>0.8813963377120597</v>
       </c>
       <c r="O273">
-        <v>2.29128784747792</v>
+        <v>2.423839928708164</v>
       </c>
       <c r="P273" t="s">
         <v>289</v>
@@ -17715,19 +17715,19 @@
         <v>0</v>
       </c>
       <c r="K275">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L275">
         <v>0</v>
       </c>
       <c r="M275">
-        <v>1.6</v>
+        <v>1.636363636363636</v>
       </c>
       <c r="N275">
-        <v>1.356465996625054</v>
+        <v>1.298441532462336</v>
       </c>
       <c r="O275">
-        <v>0.8477912478906585</v>
+        <v>0.7934920476158721</v>
       </c>
       <c r="P275" t="s">
         <v>291</v>
@@ -17771,19 +17771,19 @@
         <v>0</v>
       </c>
       <c r="K276">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L276">
         <v>0</v>
       </c>
       <c r="M276">
-        <v>1.6</v>
+        <v>1.545454545454545</v>
       </c>
       <c r="N276">
-        <v>0.9165151389911681</v>
+        <v>0.8907235428302466</v>
       </c>
       <c r="O276">
-        <v>0.57282196186948</v>
+        <v>0.576350527713689</v>
       </c>
       <c r="P276" t="s">
         <v>292</v>
@@ -17833,13 +17833,13 @@
         <v>0</v>
       </c>
       <c r="M277">
-        <v>0.4</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="N277">
-        <v>0.4898979485566357</v>
+        <v>0.4810456929208347</v>
       </c>
       <c r="O277">
-        <v>1.224744871391589</v>
+        <v>1.322875655532295</v>
       </c>
       <c r="P277" t="s">
         <v>293</v>
@@ -17889,13 +17889,13 @@
         <v>0</v>
       </c>
       <c r="M278">
-        <v>0.8</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="N278">
-        <v>0.8717797887081347</v>
+        <v>0.8624393618641034</v>
       </c>
       <c r="O278">
-        <v>1.089724735885168</v>
+        <v>1.185854122563142</v>
       </c>
       <c r="P278" t="s">
         <v>294</v>
@@ -17939,19 +17939,19 @@
         <v>0</v>
       </c>
       <c r="K279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L279">
         <v>0</v>
       </c>
       <c r="M279">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="N279">
-        <v>0</v>
+        <v>0.2874797872880345</v>
       </c>
       <c r="O279">
-        <v>0</v>
+        <v>3.162277660168379</v>
       </c>
       <c r="P279" t="s">
         <v>295</v>
@@ -17995,19 +17995,19 @@
         <v>0</v>
       </c>
       <c r="K280">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L280">
         <v>9</v>
       </c>
       <c r="M280">
-        <v>5.7</v>
+        <v>5.363636363636363</v>
       </c>
       <c r="N280">
-        <v>6.588626564011653</v>
+        <v>6.371423806521902</v>
       </c>
       <c r="O280">
-        <v>1.155899397195027</v>
+        <v>1.187892574097304</v>
       </c>
       <c r="P280" t="s">
         <v>296</v>
@@ -18051,19 +18051,19 @@
         <v>2</v>
       </c>
       <c r="K281">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L281">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M281">
-        <v>3.9</v>
+        <v>3.818181818181818</v>
       </c>
       <c r="N281">
-        <v>3.590264614203249</v>
+        <v>3.537286628789767</v>
       </c>
       <c r="O281">
-        <v>0.9205806703085253</v>
+        <v>0.9264322123020818</v>
       </c>
       <c r="P281" t="s">
         <v>297</v>
@@ -18107,19 +18107,19 @@
         <v>3</v>
       </c>
       <c r="K282">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="L282">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M282">
-        <v>5</v>
+        <v>5.181818181818182</v>
       </c>
       <c r="N282">
-        <v>4.560701700396552</v>
+        <v>4.858323351231777</v>
       </c>
       <c r="O282">
-        <v>0.9121403400793104</v>
+        <v>0.937571173044729</v>
       </c>
       <c r="P282" t="s">
         <v>298</v>
@@ -18163,19 +18163,19 @@
         <v>0</v>
       </c>
       <c r="K283">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L283">
         <v>0</v>
       </c>
       <c r="M283">
-        <v>1.7</v>
+        <v>1.727272727272727</v>
       </c>
       <c r="N283">
-        <v>0.6403124237432849</v>
+        <v>0.6165754530113881</v>
       </c>
       <c r="O283">
-        <v>0.3766543669078147</v>
+        <v>0.3569647359539615</v>
       </c>
       <c r="P283" t="s">
         <v>299</v>
@@ -18219,19 +18219,19 @@
         <v>0</v>
       </c>
       <c r="K284">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L284">
         <v>5</v>
       </c>
       <c r="M284">
-        <v>5.6</v>
+        <v>5.272727272727272</v>
       </c>
       <c r="N284">
-        <v>3.440930106817051</v>
+        <v>3.440161441531727</v>
       </c>
       <c r="O284">
-        <v>0.614451804788759</v>
+        <v>0.6524444113249828</v>
       </c>
       <c r="P284" t="s">
         <v>300</v>
@@ -18275,19 +18275,19 @@
         <v>0</v>
       </c>
       <c r="K285">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L285">
         <v>0</v>
       </c>
       <c r="M285">
-        <v>2.3</v>
+        <v>2.272727272727273</v>
       </c>
       <c r="N285">
-        <v>2.758622844826744</v>
+        <v>2.631657241114569</v>
       </c>
       <c r="O285">
-        <v>1.199401236881193</v>
+        <v>1.15792918609041</v>
       </c>
       <c r="P285" t="s">
         <v>301</v>
@@ -18331,19 +18331,19 @@
         <v>0</v>
       </c>
       <c r="K286">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L286">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M286">
-        <v>3.1</v>
+        <v>3.090909090909091</v>
       </c>
       <c r="N286">
-        <v>4.948737212663449</v>
+        <v>4.907407118642102</v>
       </c>
       <c r="O286">
-        <v>1.596366842794661</v>
+        <v>1.587690538384209</v>
       </c>
       <c r="P286" t="s">
         <v>302</v>
@@ -18387,19 +18387,19 @@
         <v>2</v>
       </c>
       <c r="K287">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L287">
         <v>5</v>
       </c>
       <c r="M287">
-        <v>3.3</v>
+        <v>3.090909090909091</v>
       </c>
       <c r="N287">
-        <v>3.377869150810907</v>
+        <v>3.287843876368204</v>
       </c>
       <c r="O287">
-        <v>1.023596712366942</v>
+        <v>1.063714195295596</v>
       </c>
       <c r="P287" t="s">
         <v>303</v>
@@ -18505,13 +18505,13 @@
         <v>0</v>
       </c>
       <c r="M289">
-        <v>0.8</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="N289">
-        <v>1.469693845669907</v>
+        <v>1.420045395619392</v>
       </c>
       <c r="O289">
-        <v>1.837117307087384</v>
+        <v>1.952562418976663</v>
       </c>
       <c r="P289" t="s">
         <v>305</v>
@@ -18617,13 +18617,13 @@
         <v>0</v>
       </c>
       <c r="M291">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="N291">
-        <v>0.3</v>
+        <v>0.2874797872880344</v>
       </c>
       <c r="O291">
-        <v>3</v>
+        <v>3.162277660168379</v>
       </c>
       <c r="P291" t="s">
         <v>307</v>
@@ -18667,19 +18667,19 @@
         <v>0</v>
       </c>
       <c r="K292">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L292">
         <v>0</v>
       </c>
       <c r="M292">
-        <v>0.1</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="N292">
-        <v>0.3</v>
+        <v>0.6165754530113881</v>
       </c>
       <c r="O292">
-        <v>3</v>
+        <v>2.260776661041756</v>
       </c>
       <c r="P292" t="s">
         <v>308</v>
@@ -18729,13 +18729,13 @@
         <v>0</v>
       </c>
       <c r="M293">
-        <v>2.1</v>
+        <v>1.909090909090909</v>
       </c>
       <c r="N293">
-        <v>3.014962686336267</v>
+        <v>2.937362622073366</v>
       </c>
       <c r="O293">
-        <v>1.435696517302984</v>
+        <v>1.538618516324144</v>
       </c>
       <c r="P293" t="s">
         <v>309</v>
@@ -18785,13 +18785,13 @@
         <v>4</v>
       </c>
       <c r="M294">
-        <v>3.9</v>
+        <v>3.545454545454545</v>
       </c>
       <c r="N294">
-        <v>4.134005321718877</v>
+        <v>4.09797369803078</v>
       </c>
       <c r="O294">
-        <v>1.060001364543302</v>
+        <v>1.155838735342015</v>
       </c>
       <c r="P294" t="s">
         <v>310</v>
@@ -18835,19 +18835,19 @@
         <v>0</v>
       </c>
       <c r="K295">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L295">
         <v>2</v>
       </c>
       <c r="M295">
-        <v>2.4</v>
+        <v>2.363636363636364</v>
       </c>
       <c r="N295">
-        <v>1.562049935181331</v>
+        <v>1.493788793195908</v>
       </c>
       <c r="O295">
-        <v>0.6508541396588878</v>
+        <v>0.6319875663521147</v>
       </c>
       <c r="P295" t="s">
         <v>311</v>
@@ -18891,19 +18891,19 @@
         <v>0</v>
       </c>
       <c r="K296">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L296">
         <v>1</v>
       </c>
       <c r="M296">
-        <v>1.909090909090909</v>
+        <v>2.25</v>
       </c>
       <c r="N296">
-        <v>2.538952735230717</v>
+        <v>2.680951323690902</v>
       </c>
       <c r="O296">
-        <v>1.32992762321609</v>
+        <v>1.191533921640401</v>
       </c>
       <c r="P296" t="s">
         <v>312</v>
@@ -18947,19 +18947,19 @@
         <v>0</v>
       </c>
       <c r="K297">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L297">
         <v>0</v>
       </c>
       <c r="M297">
-        <v>2.2</v>
+        <v>2.181818181818182</v>
       </c>
       <c r="N297">
-        <v>2.135415650406262</v>
+        <v>2.036850591128007</v>
       </c>
       <c r="O297">
-        <v>0.9706434774573919</v>
+        <v>0.93355652093367</v>
       </c>
       <c r="P297" t="s">
         <v>313</v>
@@ -19009,13 +19009,13 @@
         <v>1</v>
       </c>
       <c r="M298">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N298">
-        <v>3.218695387886216</v>
+        <v>3.133397807202561</v>
       </c>
       <c r="O298">
-        <v>1.463043358130098</v>
+        <v>1.566698903601281</v>
       </c>
       <c r="P298" t="s">
         <v>314</v>
@@ -19121,13 +19121,13 @@
         <v>0</v>
       </c>
       <c r="M300">
-        <v>2.3</v>
+        <v>2.090909090909091</v>
       </c>
       <c r="N300">
-        <v>2.491987158875422</v>
+        <v>2.466301812045552</v>
       </c>
       <c r="O300">
-        <v>1.083472677771923</v>
+        <v>1.179535649239177</v>
       </c>
       <c r="P300" t="s">
         <v>316</v>
@@ -19177,13 +19177,13 @@
         <v>3</v>
       </c>
       <c r="M301">
-        <v>3.5</v>
+        <v>3.181818181818182</v>
       </c>
       <c r="N301">
-        <v>2.974894956128703</v>
+        <v>3.009626428590336</v>
       </c>
       <c r="O301">
-        <v>0.8499699874653438</v>
+        <v>0.9458825918426771</v>
       </c>
       <c r="P301" t="s">
         <v>317</v>
@@ -19227,19 +19227,19 @@
         <v>0</v>
       </c>
       <c r="K302">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="L302">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M302">
-        <v>6.1</v>
+        <v>6.363636363636363</v>
       </c>
       <c r="N302">
-        <v>3.78021163428716</v>
+        <v>3.699452718068328</v>
       </c>
       <c r="O302">
-        <v>0.6197068252929772</v>
+        <v>0.5813425699821658</v>
       </c>
       <c r="P302" t="s">
         <v>318</v>
@@ -19289,13 +19289,13 @@
         <v>2</v>
       </c>
       <c r="M303">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N303">
-        <v>3.187475490101845</v>
+        <v>3.104249287084341</v>
       </c>
       <c r="O303">
-        <v>1.448852495500839</v>
+        <v>1.55212464354217</v>
       </c>
       <c r="P303" t="s">
         <v>319</v>
@@ -19339,19 +19339,19 @@
         <v>0</v>
       </c>
       <c r="K304">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L304">
         <v>0</v>
       </c>
       <c r="M304">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N304">
-        <v>2.3</v>
+        <v>2.215646837627989</v>
       </c>
       <c r="O304">
-        <v>1.095238095238095</v>
+        <v>1.107823418813995</v>
       </c>
       <c r="P304" t="s">
         <v>320</v>
@@ -19395,19 +19395,19 @@
         <v>0</v>
       </c>
       <c r="K305">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L305">
         <v>4</v>
       </c>
       <c r="M305">
-        <v>4</v>
+        <v>3.909090909090909</v>
       </c>
       <c r="N305">
-        <v>4.266145801540309</v>
+        <v>4.077756634910146</v>
       </c>
       <c r="O305">
-        <v>1.066536450385077</v>
+        <v>1.043147046139805</v>
       </c>
       <c r="P305" t="s">
         <v>321</v>
@@ -19451,19 +19451,19 @@
         <v>0</v>
       </c>
       <c r="K306">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L306">
         <v>2</v>
       </c>
       <c r="M306">
-        <v>1.7</v>
+        <v>1.727272727272727</v>
       </c>
       <c r="N306">
-        <v>2.934280150224242</v>
+        <v>2.799055330607391</v>
       </c>
       <c r="O306">
-        <v>1.726047147190731</v>
+        <v>1.620505717720069</v>
       </c>
       <c r="P306" t="s">
         <v>322</v>
@@ -19507,19 +19507,19 @@
         <v>0</v>
       </c>
       <c r="K307">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L307">
         <v>10</v>
       </c>
       <c r="M307">
-        <v>6.3</v>
+        <v>5.909090909090909</v>
       </c>
       <c r="N307">
-        <v>5.762811813689564</v>
+        <v>5.631963091539469</v>
       </c>
       <c r="O307">
-        <v>0.9147320339189784</v>
+        <v>0.9531014462605255</v>
       </c>
       <c r="P307" t="s">
         <v>323</v>
@@ -19563,19 +19563,19 @@
         <v>0</v>
       </c>
       <c r="K308">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="L308">
         <v>1</v>
       </c>
       <c r="M308">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="N308">
-        <v>2.343074902771996</v>
+        <v>2.256304299271065</v>
       </c>
       <c r="O308">
-        <v>0.6007884366082042</v>
+        <v>0.5640760748177662</v>
       </c>
       <c r="P308" t="s">
         <v>324</v>
@@ -19625,13 +19625,13 @@
         <v>1</v>
       </c>
       <c r="M309">
-        <v>2.4</v>
+        <v>2.181818181818182</v>
       </c>
       <c r="N309">
-        <v>2.65329983228432</v>
+        <v>2.622219109428356</v>
       </c>
       <c r="O309">
-        <v>1.105541596785133</v>
+        <v>1.201850425154663</v>
       </c>
       <c r="P309" t="s">
         <v>325</v>
@@ -19675,19 +19675,19 @@
         <v>0</v>
       </c>
       <c r="K310">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L310">
         <v>0</v>
       </c>
       <c r="M310">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="N310">
-        <v>0</v>
+        <v>0.5749595745760689</v>
       </c>
       <c r="O310">
-        <v>0</v>
+        <v>3.162277660168379</v>
       </c>
       <c r="P310" t="s">
         <v>326</v>
@@ -19787,19 +19787,19 @@
         <v>0</v>
       </c>
       <c r="K312">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="L312">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M312">
-        <v>4.9</v>
+        <v>5.272727272727272</v>
       </c>
       <c r="N312">
-        <v>3.618010503025109</v>
+        <v>3.645443210138804</v>
       </c>
       <c r="O312">
-        <v>0.7383694904132874</v>
+        <v>0.6913771605435662</v>
       </c>
       <c r="P312" t="s">
         <v>328</v>
@@ -19843,19 +19843,19 @@
         <v>0</v>
       </c>
       <c r="K313">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L313">
         <v>0</v>
       </c>
       <c r="M313">
-        <v>3.6</v>
+        <v>3.454545454545455</v>
       </c>
       <c r="N313">
-        <v>2.457641145488902</v>
+        <v>2.3879864611934</v>
       </c>
       <c r="O313">
-        <v>0.6826780959691393</v>
+        <v>0.6912592387665104</v>
       </c>
       <c r="P313" t="s">
         <v>329</v>
@@ -19905,13 +19905,13 @@
         <v>3</v>
       </c>
       <c r="M314">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N314">
-        <v>3.709447398198282</v>
+        <v>3.592922335521728</v>
       </c>
       <c r="O314">
-        <v>1.686112453726492</v>
+        <v>1.796461167760864</v>
       </c>
       <c r="P314" t="s">
         <v>330</v>
@@ -19955,19 +19955,19 @@
         <v>0</v>
       </c>
       <c r="K315">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L315">
         <v>4</v>
       </c>
       <c r="M315">
-        <v>6.4</v>
+        <v>5.909090909090909</v>
       </c>
       <c r="N315">
-        <v>5.2</v>
+        <v>5.195357113538018</v>
       </c>
       <c r="O315">
-        <v>0.8125</v>
+        <v>0.8792142807525876</v>
       </c>
       <c r="P315" t="s">
         <v>331</v>
@@ -20011,19 +20011,19 @@
         <v>0</v>
       </c>
       <c r="K316">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L316">
         <v>0</v>
       </c>
       <c r="M316">
-        <v>2.9</v>
+        <v>2.818181818181818</v>
       </c>
       <c r="N316">
-        <v>1.813835714721705</v>
+        <v>1.748671278333759</v>
       </c>
       <c r="O316">
-        <v>0.6254605912833467</v>
+        <v>0.6204962600539143</v>
       </c>
       <c r="P316" t="s">
         <v>332</v>
@@ -20067,19 +20067,19 @@
         <v>0</v>
       </c>
       <c r="K317">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L317">
         <v>0</v>
       </c>
       <c r="M317">
-        <v>0.6</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="N317">
-        <v>0.4898979485566356</v>
+        <v>0.4810456929208347</v>
       </c>
       <c r="O317">
-        <v>0.816496580927726</v>
+        <v>0.7559289460184545</v>
       </c>
       <c r="P317" t="s">
         <v>333</v>
@@ -20179,19 +20179,19 @@
         <v>0</v>
       </c>
       <c r="K319">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="L319">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M319">
-        <v>10.4</v>
+        <v>10.63636363636364</v>
       </c>
       <c r="N319">
-        <v>6.421837743200929</v>
+        <v>6.168434710431772</v>
       </c>
       <c r="O319">
-        <v>0.6174843983847047</v>
+        <v>0.57993830610897</v>
       </c>
       <c r="P319" t="s">
         <v>335</v>
@@ -20235,19 +20235,19 @@
         <v>0</v>
       </c>
       <c r="K320">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L320">
         <v>2</v>
       </c>
       <c r="M320">
-        <v>1.9</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="N320">
-        <v>3.389690251335658</v>
+        <v>3.242282636386729</v>
       </c>
       <c r="O320">
-        <v>1.784047500702978</v>
+        <v>1.783255450012701</v>
       </c>
       <c r="P320" t="s">
         <v>336</v>
@@ -20353,13 +20353,13 @@
         <v>0</v>
       </c>
       <c r="M322">
-        <v>1.181818181818182</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="N322">
-        <v>1.748671278333759</v>
+        <v>1.70579079087156</v>
       </c>
       <c r="O322">
-        <v>1.479644927820873</v>
+        <v>1.574576114650671</v>
       </c>
       <c r="P322" t="s">
         <v>338</v>
@@ -20577,13 +20577,13 @@
         <v>0</v>
       </c>
       <c r="M326">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="N326">
-        <v>0.3</v>
+        <v>0.2874797872880344</v>
       </c>
       <c r="O326">
-        <v>3</v>
+        <v>3.162277660168379</v>
       </c>
       <c r="P326" t="s">
         <v>342</v>
@@ -20633,13 +20633,13 @@
         <v>3</v>
       </c>
       <c r="M327">
-        <v>1.7</v>
+        <v>1.545454545454545</v>
       </c>
       <c r="N327">
-        <v>2.491987158875423</v>
+        <v>2.425757102568424</v>
       </c>
       <c r="O327">
-        <v>1.465874799338484</v>
+        <v>1.569607536956039</v>
       </c>
       <c r="P327" t="s">
         <v>343</v>
@@ -20683,19 +20683,19 @@
         <v>0</v>
       </c>
       <c r="K328">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L328">
         <v>1</v>
       </c>
       <c r="M328">
-        <v>3.5</v>
+        <v>3.363636363636364</v>
       </c>
       <c r="N328">
-        <v>2.61725046566048</v>
+        <v>2.532434232215295</v>
       </c>
       <c r="O328">
-        <v>0.7477858473315658</v>
+        <v>0.7528858528207633</v>
       </c>
       <c r="P328" t="s">
         <v>344</v>
@@ -20795,19 +20795,19 @@
         <v>0</v>
       </c>
       <c r="K330">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L330">
         <v>1</v>
       </c>
       <c r="M330">
-        <v>3</v>
+        <v>2.818181818181818</v>
       </c>
       <c r="N330">
-        <v>2.720294101747089</v>
+        <v>2.65666167203681</v>
       </c>
       <c r="O330">
-        <v>0.9067647005823628</v>
+        <v>0.9426863997549971</v>
       </c>
       <c r="P330" t="s">
         <v>346</v>
@@ -20857,13 +20857,13 @@
         <v>0</v>
       </c>
       <c r="M331">
-        <v>-0.1</v>
+        <v>-0.09090909090909091</v>
       </c>
       <c r="N331">
-        <v>0.3</v>
+        <v>0.2874797872880344</v>
       </c>
       <c r="O331">
-        <v>3</v>
+        <v>3.162277660168379</v>
       </c>
       <c r="P331" t="s">
         <v>347</v>
@@ -20907,19 +20907,19 @@
         <v>0</v>
       </c>
       <c r="K332">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L332">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M332">
         <v>2</v>
       </c>
       <c r="N332">
-        <v>2.32379000772445</v>
+        <v>2.796101181678127</v>
       </c>
       <c r="O332">
-        <v>1.161895003862225</v>
+        <v>1.398050590839063</v>
       </c>
       <c r="P332" t="s">
         <v>348</v>
@@ -20963,19 +20963,19 @@
         <v>0</v>
       </c>
       <c r="K333">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L333">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M333">
-        <v>1.3</v>
+        <v>1.727272727272727</v>
       </c>
       <c r="N333">
-        <v>2.451530134426253</v>
+        <v>2.73332661424962</v>
       </c>
       <c r="O333">
-        <v>1.885792411097117</v>
+        <v>1.582452250355043</v>
       </c>
       <c r="P333" t="s">
         <v>349</v>
@@ -21019,19 +21019,19 @@
         <v>0</v>
       </c>
       <c r="K334">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L334">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M334">
-        <v>3.5</v>
+        <v>3.636363636363636</v>
       </c>
       <c r="N334">
-        <v>2.80178514522438</v>
+        <v>3.255002507266938</v>
       </c>
       <c r="O334">
-        <v>0.8005100414926799</v>
+        <v>0.8951256894984079</v>
       </c>
       <c r="P334" t="s">
         <v>350</v>
@@ -21131,19 +21131,19 @@
         <v>0</v>
       </c>
       <c r="K336">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L336">
         <v>6</v>
       </c>
       <c r="M336">
-        <v>4.7</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="N336">
-        <v>5.177837386399847</v>
+        <v>4.961004963506274</v>
       </c>
       <c r="O336">
-        <v>1.101667529021244</v>
+        <v>1.09142109197138</v>
       </c>
       <c r="P336" t="s">
         <v>352</v>
@@ -21193,13 +21193,13 @@
         <v>0</v>
       </c>
       <c r="M337">
-        <v>0.3</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="N337">
-        <v>0.4582575694955839</v>
+        <v>0.4453617714151233</v>
       </c>
       <c r="O337">
-        <v>1.527525231651947</v>
+        <v>1.632993161855452</v>
       </c>
       <c r="P337" t="s">
         <v>353</v>
@@ -21243,19 +21243,19 @@
         <v>0</v>
       </c>
       <c r="K338">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L338">
         <v>0</v>
       </c>
       <c r="M338">
-        <v>0.2</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="N338">
-        <v>0.6000000000000001</v>
+        <v>0.6165754530113881</v>
       </c>
       <c r="O338">
-        <v>3</v>
+        <v>2.260776661041756</v>
       </c>
       <c r="P338" t="s">
         <v>354</v>
@@ -21299,19 +21299,19 @@
         <v>0</v>
       </c>
       <c r="K339">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L339">
         <v>0</v>
       </c>
       <c r="M339">
-        <v>1.1</v>
+        <v>1.090909090909091</v>
       </c>
       <c r="N339">
-        <v>0.9433981132056604</v>
+        <v>0.8999540851465151</v>
       </c>
       <c r="O339">
-        <v>0.8576346483687821</v>
+        <v>0.8249579113843055</v>
       </c>
       <c r="P339" t="s">
         <v>355</v>
@@ -21411,19 +21411,19 @@
         <v>0</v>
       </c>
       <c r="K341">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L341">
         <v>4</v>
       </c>
       <c r="M341">
-        <v>3.9</v>
+        <v>3.636363636363636</v>
       </c>
       <c r="N341">
-        <v>3.389690251335658</v>
+        <v>3.337738136488331</v>
       </c>
       <c r="O341">
-        <v>0.8691513464963226</v>
+        <v>0.917877987534291</v>
       </c>
       <c r="P341" t="s">
         <v>357</v>
@@ -21473,13 +21473,13 @@
         <v>0</v>
       </c>
       <c r="M342">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="N342">
-        <v>0.3</v>
+        <v>0.2874797872880344</v>
       </c>
       <c r="O342">
-        <v>3</v>
+        <v>3.162277660168379</v>
       </c>
       <c r="P342" t="s">
         <v>358</v>
@@ -21523,19 +21523,19 @@
         <v>3</v>
       </c>
       <c r="K343">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L343">
         <v>9</v>
       </c>
       <c r="M343">
-        <v>3.8</v>
+        <v>3.636363636363636</v>
       </c>
       <c r="N343">
-        <v>4.142463035441596</v>
+        <v>3.983436781855754</v>
       </c>
       <c r="O343">
-        <v>1.090121851431999</v>
+        <v>1.095445115010332</v>
       </c>
       <c r="P343" t="s">
         <v>359</v>
@@ -21635,19 +21635,19 @@
         <v>0</v>
       </c>
       <c r="K345">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L345">
         <v>0</v>
       </c>
       <c r="M345">
-        <v>1.1</v>
+        <v>1.090909090909091</v>
       </c>
       <c r="N345">
-        <v>1.3</v>
+        <v>1.239834699725987</v>
       </c>
       <c r="O345">
-        <v>1.181818181818182</v>
+        <v>1.136515141415488</v>
       </c>
       <c r="P345" t="s">
         <v>361</v>
@@ -21697,13 +21697,13 @@
         <v>1</v>
       </c>
       <c r="M346">
-        <v>1.8</v>
+        <v>1.636363636363636</v>
       </c>
       <c r="N346">
-        <v>3.1559467676119</v>
+        <v>3.053246477044848</v>
       </c>
       <c r="O346">
-        <v>1.753303759784389</v>
+        <v>1.865872847082962</v>
       </c>
       <c r="P346" t="s">
         <v>362</v>
@@ -21747,19 +21747,19 @@
         <v>0</v>
       </c>
       <c r="K347">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="L347">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M347">
-        <v>3.363636363636364</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="N347">
-        <v>2.384523099746182</v>
+        <v>2.702879123371142</v>
       </c>
       <c r="O347">
-        <v>0.7089122728975136</v>
+        <v>0.6486909896090741</v>
       </c>
       <c r="P347" t="s">
         <v>363</v>
@@ -21915,19 +21915,19 @@
         <v>0</v>
       </c>
       <c r="K350">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L350">
         <v>0</v>
       </c>
       <c r="M350">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="N350">
-        <v>0</v>
+        <v>0.2763853991962833</v>
       </c>
       <c r="O350">
-        <v>0</v>
+        <v>3.3166247903554</v>
       </c>
       <c r="P350" t="s">
         <v>366</v>
@@ -21977,13 +21977,13 @@
         <v>0</v>
       </c>
       <c r="M351">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="N351">
-        <v>0.2874797872880344</v>
+        <v>0.2763853991962833</v>
       </c>
       <c r="O351">
-        <v>3.162277660168379</v>
+        <v>3.3166247903554</v>
       </c>
       <c r="P351" t="s">
         <v>367</v>
@@ -22195,7 +22195,7 @@
         <v>0</v>
       </c>
       <c r="K355">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L355">
         <v>0</v>
@@ -22204,10 +22204,10 @@
         <v>1</v>
       </c>
       <c r="N355">
-        <v>0.4264014327112209</v>
+        <v>0.408248290463863</v>
       </c>
       <c r="O355">
-        <v>0.4264014327112209</v>
+        <v>0.408248290463863</v>
       </c>
       <c r="P355" t="s">
         <v>371</v>
@@ -22307,19 +22307,19 @@
         <v>0</v>
       </c>
       <c r="K357">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L357">
         <v>0</v>
       </c>
       <c r="M357">
-        <v>2.636363636363636</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="N357">
-        <v>2.49627822140836</v>
+        <v>2.477678124553084</v>
       </c>
       <c r="O357">
-        <v>0.9468641529479987</v>
+        <v>0.8744746321952062</v>
       </c>
       <c r="P357" t="s">
         <v>373</v>
@@ -22363,19 +22363,19 @@
         <v>0</v>
       </c>
       <c r="K358">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="L358">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M358">
-        <v>5.545454545454546</v>
+        <v>5.5</v>
       </c>
       <c r="N358">
-        <v>2.31059364129797</v>
+        <v>2.629955639676584</v>
       </c>
       <c r="O358">
-        <v>0.416664427119306</v>
+        <v>0.4781737526684697</v>
       </c>
       <c r="P358" t="s">
         <v>374</v>
@@ -22419,19 +22419,19 @@
         <v>0</v>
       </c>
       <c r="K359">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L359">
         <v>1</v>
       </c>
       <c r="M359">
-        <v>3.454545454545455</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="N359">
-        <v>2.3879864611934</v>
+        <v>2.321398046197353</v>
       </c>
       <c r="O359">
-        <v>0.6912592387665104</v>
+        <v>0.696419413859206</v>
       </c>
       <c r="P359" t="s">
         <v>375</v>
@@ -22481,13 +22481,13 @@
         <v>0</v>
       </c>
       <c r="M360">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="N360">
-        <v>0.7385489458759964</v>
+        <v>0.759202798262025</v>
       </c>
       <c r="O360">
-        <v>0.7385489458759964</v>
+        <v>0.8282212344676636</v>
       </c>
       <c r="P360" t="s">
         <v>376</v>
@@ -22537,13 +22537,13 @@
         <v>0</v>
       </c>
       <c r="M361">
-        <v>0.1818181818181818</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="N361">
-        <v>0.385694607919935</v>
+        <v>0.3726779962499649</v>
       </c>
       <c r="O361">
-        <v>2.121320343559642</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="P361" t="s">
         <v>377</v>
@@ -22761,13 +22761,13 @@
         <v>0</v>
       </c>
       <c r="M365">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="N365">
-        <v>0.2874797872880344</v>
+        <v>0.2763853991962833</v>
       </c>
       <c r="O365">
-        <v>3.162277660168379</v>
+        <v>3.3166247903554</v>
       </c>
       <c r="P365" t="s">
         <v>381</v>
@@ -22811,19 +22811,19 @@
         <v>0</v>
       </c>
       <c r="K366">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L366">
         <v>1</v>
       </c>
       <c r="M366">
-        <v>1.909090909090909</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="N366">
-        <v>2.020555524626625</v>
+        <v>1.950783318453271</v>
       </c>
       <c r="O366">
-        <v>1.058386227185375</v>
+        <v>1.064063628247239</v>
       </c>
       <c r="P366" t="s">
         <v>382</v>
@@ -22867,19 +22867,19 @@
         <v>2</v>
       </c>
       <c r="K367">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L367">
         <v>5</v>
       </c>
       <c r="M367">
-        <v>4.545454545454546</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="N367">
-        <v>4.185768884807759</v>
+        <v>4.068851871911235</v>
       </c>
       <c r="O367">
-        <v>0.9208691546577069</v>
+        <v>0.9389658165949005</v>
       </c>
       <c r="P367" t="s">
         <v>383</v>
@@ -22929,13 +22929,13 @@
         <v>2</v>
       </c>
       <c r="M368">
-        <v>1.909090909090909</v>
+        <v>1.75</v>
       </c>
       <c r="N368">
-        <v>2.502890890533855</v>
+        <v>2.453738644055909</v>
       </c>
       <c r="O368">
-        <v>1.311038085517734</v>
+        <v>1.402136368031948</v>
       </c>
       <c r="P368" t="s">
         <v>384</v>
@@ -22985,13 +22985,13 @@
         <v>4</v>
       </c>
       <c r="M369">
-        <v>2.545454545454545</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="N369">
-        <v>4.185768884807759</v>
+        <v>4.068851871911234</v>
       </c>
       <c r="O369">
-        <v>1.644409204745905</v>
+        <v>1.743793659390529</v>
       </c>
       <c r="P369" t="s">
         <v>385</v>
@@ -23035,19 +23035,19 @@
         <v>0</v>
       </c>
       <c r="K370">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="L370">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M370">
-        <v>5</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="N370">
-        <v>3.813850356982369</v>
+        <v>4.050891534245545</v>
       </c>
       <c r="O370">
-        <v>0.7627700713964739</v>
+        <v>0.7255328121036797</v>
       </c>
       <c r="P370" t="s">
         <v>386</v>
@@ -23091,19 +23091,19 @@
         <v>0</v>
       </c>
       <c r="K371">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L371">
         <v>1</v>
       </c>
       <c r="M371">
-        <v>2.636363636363636</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="N371">
-        <v>1.966664332071267</v>
+        <v>1.993043457183566</v>
       </c>
       <c r="O371">
-        <v>0.7459761259580667</v>
+        <v>0.7034271025353763</v>
       </c>
       <c r="P371" t="s">
         <v>387</v>
@@ -23147,19 +23147,19 @@
         <v>0</v>
       </c>
       <c r="K372">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L372">
         <v>0</v>
       </c>
       <c r="M372">
-        <v>2.181818181818182</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="N372">
-        <v>1.695887100561603</v>
+        <v>1.624465724134827</v>
       </c>
       <c r="O372">
-        <v>0.7772815877574013</v>
+        <v>0.7497534111391512</v>
       </c>
       <c r="P372" t="s">
         <v>388</v>
@@ -23209,13 +23209,13 @@
         <v>0</v>
       </c>
       <c r="M373">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="N373">
-        <v>0.2874797872880344</v>
+        <v>0.2763853991962833</v>
       </c>
       <c r="O373">
-        <v>3.162277660168379</v>
+        <v>3.3166247903554</v>
       </c>
       <c r="P373" t="s">
         <v>389</v>
@@ -23259,19 +23259,19 @@
         <v>0</v>
       </c>
       <c r="K374">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L374">
         <v>2</v>
       </c>
       <c r="M374">
-        <v>2.818181818181818</v>
+        <v>2.75</v>
       </c>
       <c r="N374">
-        <v>2.36713028478028</v>
+        <v>2.277608394786075</v>
       </c>
       <c r="O374">
-        <v>0.8399494558897767</v>
+        <v>0.8282212344676636</v>
       </c>
       <c r="P374" t="s">
         <v>390</v>
@@ -23315,19 +23315,19 @@
         <v>0</v>
       </c>
       <c r="K375">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L375">
         <v>3</v>
       </c>
       <c r="M375">
-        <v>3.363636363636364</v>
+        <v>3.25</v>
       </c>
       <c r="N375">
-        <v>4.09595648220684</v>
+        <v>3.939648884524271</v>
       </c>
       <c r="O375">
-        <v>1.217716792007439</v>
+        <v>1.212199656776699</v>
       </c>
       <c r="P375" t="s">
         <v>391</v>
@@ -23427,19 +23427,19 @@
         <v>0</v>
       </c>
       <c r="K377">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L377">
         <v>6</v>
       </c>
       <c r="M377">
-        <v>4.909090909090909</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="N377">
-        <v>3.315378641601904</v>
+        <v>3.274480450731417</v>
       </c>
       <c r="O377">
-        <v>0.6753549084744618</v>
+        <v>0.7016743822995892</v>
       </c>
       <c r="P377" t="s">
         <v>393</v>
@@ -23483,19 +23483,19 @@
         <v>1</v>
       </c>
       <c r="K378">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L378">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M378">
-        <v>3.363636363636364</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="N378">
-        <v>2.705977466570403</v>
+        <v>2.718251071716682</v>
       </c>
       <c r="O378">
-        <v>0.8044797873587685</v>
+        <v>0.8154753215150046</v>
       </c>
       <c r="P378" t="s">
         <v>394</v>
@@ -23595,19 +23595,19 @@
         <v>0</v>
       </c>
       <c r="K380">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L380">
         <v>0</v>
       </c>
       <c r="M380">
-        <v>1.181818181818182</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="N380">
-        <v>1.748671278333759</v>
+        <v>2.139249608832239</v>
       </c>
       <c r="O380">
-        <v>1.479644927820873</v>
+        <v>1.351105016104572</v>
       </c>
       <c r="P380" t="s">
         <v>396</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="M382">
-        <v>0.3636363636363636</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="N382">
-        <v>0.6428243465332248</v>
+        <v>0.6236095644623235</v>
       </c>
       <c r="O382">
-        <v>1.767766952966368</v>
+        <v>1.870828693386971</v>
       </c>
       <c r="P382" t="s">
         <v>398</v>
@@ -23825,13 +23825,13 @@
         <v>0</v>
       </c>
       <c r="M384">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="N384">
-        <v>0.2874797872880344</v>
+        <v>0.2763853991962833</v>
       </c>
       <c r="O384">
-        <v>3.162277660168379</v>
+        <v>3.3166247903554</v>
       </c>
       <c r="P384" t="s">
         <v>400</v>
@@ -23931,19 +23931,19 @@
         <v>0</v>
       </c>
       <c r="K386">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L386">
         <v>0</v>
       </c>
       <c r="M386">
-        <v>1.545454545454545</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="N386">
-        <v>2.061051645228115</v>
+        <v>2.32588095615881</v>
       </c>
       <c r="O386">
-        <v>1.333621652794663</v>
+        <v>1.213503107561118</v>
       </c>
       <c r="P386" t="s">
         <v>402</v>
@@ -24043,19 +24043,19 @@
         <v>0</v>
       </c>
       <c r="K388">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L388">
         <v>0</v>
       </c>
       <c r="M388">
-        <v>2</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="N388">
-        <v>1.477097891751993</v>
+        <v>1.440968038815882</v>
       </c>
       <c r="O388">
-        <v>0.7385489458759964</v>
+        <v>0.6916646586316233</v>
       </c>
       <c r="P388" t="s">
         <v>404</v>
@@ -24105,13 +24105,13 @@
         <v>1</v>
       </c>
       <c r="M389">
-        <v>0.9090909090909091</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="N389">
-        <v>2.020555524626625</v>
+        <v>1.950783318453271</v>
       </c>
       <c r="O389">
-        <v>2.222611077089287</v>
+        <v>2.340939982143925</v>
       </c>
       <c r="P389" t="s">
         <v>405</v>
@@ -24273,13 +24273,13 @@
         <v>0</v>
       </c>
       <c r="M392">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
       </c>
       <c r="N392">
-        <v>0.6555547773570889</v>
+        <v>0.6454972243679028</v>
       </c>
       <c r="O392">
-        <v>1.201850425154663</v>
+        <v>1.290994448735806</v>
       </c>
       <c r="P392" t="s">
         <v>408</v>
@@ -24435,19 +24435,19 @@
         <v>0</v>
       </c>
       <c r="K395">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L395">
         <v>4</v>
       </c>
       <c r="M395">
-        <v>2.636363636363636</v>
+        <v>2.5</v>
       </c>
       <c r="N395">
-        <v>2.637930568826711</v>
+        <v>2.565800719723442</v>
       </c>
       <c r="O395">
-        <v>1.00059435369289</v>
+        <v>1.026320287889377</v>
       </c>
       <c r="P395" t="s">
         <v>411</v>
@@ -24497,13 +24497,13 @@
         <v>0</v>
       </c>
       <c r="M396">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="N396">
-        <v>0.2874797872880344</v>
+        <v>0.2763853991962833</v>
       </c>
       <c r="O396">
-        <v>3.162277660168379</v>
+        <v>3.3166247903554</v>
       </c>
       <c r="P396" t="s">
         <v>412</v>
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="K398">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="L398">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M398">
-        <v>2.272727272727273</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="N398">
-        <v>2.525898907172691</v>
+        <v>3.050500869620521</v>
       </c>
       <c r="O398">
-        <v>1.111395519155984</v>
+        <v>1.076647365748419</v>
       </c>
       <c r="P398" t="s">
         <v>414</v>
@@ -24659,19 +24659,19 @@
         <v>0</v>
       </c>
       <c r="K399">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="L399">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M399">
-        <v>4.454545454545454</v>
+        <v>5</v>
       </c>
       <c r="N399">
-        <v>4.459181261247536</v>
+        <v>4.636809247747852</v>
       </c>
       <c r="O399">
-        <v>1.001040691300467</v>
+        <v>0.9273618495495703</v>
       </c>
       <c r="P399" t="s">
         <v>415</v>
@@ -24721,13 +24721,13 @@
         <v>0</v>
       </c>
       <c r="M400">
-        <v>0.1818181818181818</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="N400">
-        <v>0.385694607919935</v>
+        <v>0.372677996249965</v>
       </c>
       <c r="O400">
-        <v>2.121320343559642</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="P400" t="s">
         <v>416</v>
@@ -24889,13 +24889,13 @@
         <v>0</v>
       </c>
       <c r="M403">
-        <v>0.1818181818181818</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="N403">
-        <v>0.5749595745760688</v>
+        <v>0.5527707983925666</v>
       </c>
       <c r="O403">
-        <v>3.162277660168379</v>
+        <v>3.3166247903554</v>
       </c>
       <c r="P403" t="s">
         <v>419</v>
@@ -24945,13 +24945,13 @@
         <v>0</v>
       </c>
       <c r="M404">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="N404">
-        <v>0.2874797872880344</v>
+        <v>0.2763853991962833</v>
       </c>
       <c r="O404">
-        <v>3.162277660168379</v>
+        <v>3.3166247903554</v>
       </c>
       <c r="P404" t="s">
         <v>420</v>
@@ -25001,13 +25001,13 @@
         <v>0</v>
       </c>
       <c r="M405">
-        <v>0.1818181818181818</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="N405">
-        <v>0.3856946079199349</v>
+        <v>0.3726779962499649</v>
       </c>
       <c r="O405">
-        <v>2.121320343559642</v>
+        <v>2.236067977499789</v>
       </c>
       <c r="P405" t="s">
         <v>421</v>
@@ -25051,19 +25051,19 @@
         <v>0</v>
       </c>
       <c r="K406">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L406">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M406">
-        <v>1</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="N406">
-        <v>0.6030226891555273</v>
+        <v>2.285218200133681</v>
       </c>
       <c r="O406">
-        <v>0.6030226891555273</v>
+        <v>1.371130920080209</v>
       </c>
       <c r="P406" t="s">
         <v>422</v>
@@ -25107,19 +25107,19 @@
         <v>0</v>
       </c>
       <c r="K407">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L407">
         <v>0</v>
       </c>
       <c r="M407">
-        <v>1.545454545454545</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="N407">
-        <v>0.7820295697311479</v>
+        <v>1.21335164821342</v>
       </c>
       <c r="O407">
-        <v>0.5060191333554487</v>
+        <v>0.6618281717527745</v>
       </c>
       <c r="P407" t="s">
         <v>423</v>
@@ -25163,19 +25163,19 @@
         <v>0</v>
       </c>
       <c r="K408">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L408">
         <v>4</v>
       </c>
       <c r="M408">
-        <v>3</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="N408">
-        <v>2.449489742783178</v>
+        <v>2.361437885884126</v>
       </c>
       <c r="O408">
-        <v>0.8164965809277259</v>
+        <v>0.8096358465888431</v>
       </c>
       <c r="P408" t="s">
         <v>424</v>
@@ -25219,19 +25219,19 @@
         <v>0</v>
       </c>
       <c r="K409">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L409">
         <v>3</v>
       </c>
       <c r="M409">
-        <v>2.636363636363636</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="N409">
-        <v>2.143604749554835</v>
+        <v>2.059867849051379</v>
       </c>
       <c r="O409">
-        <v>0.8130914567276962</v>
+        <v>0.7973681996327918</v>
       </c>
       <c r="P409" t="s">
         <v>425</v>
@@ -25281,13 +25281,13 @@
         <v>0</v>
       </c>
       <c r="M410">
-        <v>2.181818181818182</v>
+        <v>2</v>
       </c>
       <c r="N410">
-        <v>2.24896670488236</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="O410">
-        <v>1.030776406404415</v>
+        <v>1.118033988749895</v>
       </c>
       <c r="P410" t="s">
         <v>426</v>
@@ -25331,19 +25331,19 @@
         <v>0</v>
       </c>
       <c r="K411">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L411">
         <v>0</v>
       </c>
       <c r="M411">
-        <v>0.1818181818181818</v>
+        <v>0.25</v>
       </c>
       <c r="N411">
-        <v>0.3856946079199349</v>
+        <v>0.4330127018922193</v>
       </c>
       <c r="O411">
-        <v>2.121320343559642</v>
+        <v>1.732050807568877</v>
       </c>
       <c r="P411" t="s">
         <v>427</v>
@@ -25387,19 +25387,19 @@
         <v>0</v>
       </c>
       <c r="K412">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L412">
         <v>3</v>
       </c>
       <c r="M412">
-        <v>3.363636363636364</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="N412">
-        <v>3.141300462394727</v>
+        <v>3.077697552103231</v>
       </c>
       <c r="O412">
-        <v>0.9339001374687025</v>
+        <v>0.9719044901378625</v>
       </c>
       <c r="P412" t="s">
         <v>428</v>
@@ -25499,19 +25499,19 @@
         <v>0</v>
       </c>
       <c r="K414">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L414">
         <v>0</v>
       </c>
       <c r="M414">
-        <v>0.3636363636363636</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="N414">
-        <v>0.4810456929208346</v>
+        <v>0.4930066485916347</v>
       </c>
       <c r="O414">
-        <v>1.322875655532295</v>
+        <v>1.183215956619923</v>
       </c>
       <c r="P414" t="s">
         <v>430</v>
@@ -25667,19 +25667,19 @@
         <v>0</v>
       </c>
       <c r="K417">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L417">
         <v>0</v>
       </c>
       <c r="M417">
-        <v>0.7272727272727273</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="N417">
-        <v>0.7496555682941201</v>
+        <v>0.7993052538854533</v>
       </c>
       <c r="O417">
-        <v>1.030776406404415</v>
+        <v>0.9591663046625438</v>
       </c>
       <c r="P417" t="s">
         <v>433</v>
@@ -25723,19 +25723,19 @@
         <v>0</v>
       </c>
       <c r="K418">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L418">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M418">
-        <v>2.636363636363636</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="N418">
-        <v>3.141300462394726</v>
+        <v>3.531603350069515</v>
       </c>
       <c r="O418">
-        <v>1.191527761598</v>
+        <v>1.246448241201005</v>
       </c>
       <c r="P418" t="s">
         <v>434</v>
@@ -25785,13 +25785,13 @@
         <v>0</v>
       </c>
       <c r="M419">
-        <v>1.545454545454545</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="N419">
-        <v>1.304790917673393</v>
+        <v>1.320248293146238</v>
       </c>
       <c r="O419">
-        <v>0.8442764761416074</v>
+        <v>0.9319399716326388</v>
       </c>
       <c r="P419" t="s">
         <v>435</v>
@@ -25891,19 +25891,19 @@
         <v>0</v>
       </c>
       <c r="K421">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L421">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M421">
-        <v>1.363636363636364</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="N421">
-        <v>1.919882916540262</v>
+        <v>2.289771944005681</v>
       </c>
       <c r="O421">
-        <v>1.407914138796192</v>
+        <v>1.446171754108851</v>
       </c>
       <c r="P421" t="s">
         <v>437</v>
@@ -26003,19 +26003,19 @@
         <v>0</v>
       </c>
       <c r="K423">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L423">
         <v>0</v>
       </c>
       <c r="M423">
-        <v>2.545454545454545</v>
+        <v>2.5</v>
       </c>
       <c r="N423">
-        <v>1.558766199952932</v>
+        <v>1.5</v>
       </c>
       <c r="O423">
-        <v>0.6123724356957946</v>
+        <v>0.6</v>
       </c>
       <c r="P423" t="s">
         <v>439</v>
@@ -26065,13 +26065,13 @@
         <v>0</v>
       </c>
       <c r="M424">
-        <v>1.363636363636364</v>
+        <v>1.25</v>
       </c>
       <c r="N424">
-        <v>1.36666330712481</v>
+        <v>1.361677886530683</v>
       </c>
       <c r="O424">
-        <v>1.002219758558194</v>
+        <v>1.089342309224546</v>
       </c>
       <c r="P424" t="s">
         <v>440</v>
@@ -26171,19 +26171,19 @@
         <v>0</v>
       </c>
       <c r="K426">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L426">
         <v>7</v>
       </c>
       <c r="M426">
-        <v>4.454545454545454</v>
+        <v>4.25</v>
       </c>
       <c r="N426">
-        <v>2.87192163616933</v>
+        <v>2.832107577994405</v>
       </c>
       <c r="O426">
-        <v>0.6447171019971965</v>
+        <v>0.6663782536457423</v>
       </c>
       <c r="P426" t="s">
         <v>442</v>
@@ -26283,19 +26283,19 @@
         <v>3</v>
       </c>
       <c r="K428">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="L428">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M428">
-        <v>6.727272727272728</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="N428">
-        <v>2.73332661424962</v>
+        <v>2.640496586292477</v>
       </c>
       <c r="O428">
-        <v>0.4063053075235921</v>
+        <v>0.3864141345793868</v>
       </c>
       <c r="P428" t="s">
         <v>444</v>
@@ -26339,19 +26339,19 @@
         <v>0</v>
       </c>
       <c r="K429">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L429">
         <v>3</v>
       </c>
       <c r="M429">
-        <v>4.454545454545454</v>
+        <v>4.25</v>
       </c>
       <c r="N429">
-        <v>4.774242183818503</v>
+        <v>4.621056877670591</v>
       </c>
       <c r="O429">
-        <v>1.071768653510276</v>
+        <v>1.087307500628374</v>
       </c>
       <c r="P429" t="s">
         <v>445</v>
@@ -26395,19 +26395,19 @@
         <v>0</v>
       </c>
       <c r="K430">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L430">
         <v>0</v>
       </c>
       <c r="M430">
-        <v>1.363636363636364</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="N430">
-        <v>2.226808857075616</v>
+        <v>2.13437474581095</v>
       </c>
       <c r="O430">
-        <v>1.632993161855452</v>
+        <v>1.600781059358213</v>
       </c>
       <c r="P430" t="s">
         <v>446</v>
@@ -26451,19 +26451,19 @@
         <v>0</v>
       </c>
       <c r="K431">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L431">
         <v>1</v>
       </c>
       <c r="M431">
-        <v>4.181818181818182</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="N431">
-        <v>2.690663379445226</v>
+        <v>2.722080495176846</v>
       </c>
       <c r="O431">
-        <v>0.64341950378038</v>
+        <v>0.6949992753643011</v>
       </c>
       <c r="P431" t="s">
         <v>447</v>
@@ -26507,19 +26507,19 @@
         <v>0</v>
       </c>
       <c r="K432">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L432">
         <v>0</v>
       </c>
       <c r="M432">
-        <v>0.3636363636363636</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="N432">
-        <v>0.4810456929208347</v>
+        <v>0.4930066485916347</v>
       </c>
       <c r="O432">
-        <v>1.322875655532295</v>
+        <v>1.183215956619923</v>
       </c>
       <c r="P432" t="s">
         <v>448</v>
@@ -26563,19 +26563,19 @@
         <v>0</v>
       </c>
       <c r="K433">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L433">
         <v>0</v>
       </c>
       <c r="M433">
-        <v>2.909090909090909</v>
+        <v>2.75</v>
       </c>
       <c r="N433">
-        <v>2.5745095015466</v>
+        <v>2.520747243709029</v>
       </c>
       <c r="O433">
-        <v>0.8849876411566436</v>
+        <v>0.9166353613487378</v>
       </c>
       <c r="P433" t="s">
         <v>449</v>
@@ -26625,13 +26625,13 @@
         <v>6</v>
       </c>
       <c r="M434">
-        <v>4.454545454545454</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="N434">
-        <v>3.114880308911239</v>
+        <v>3.226410113767657</v>
       </c>
       <c r="O434">
-        <v>0.6992588448576251</v>
+        <v>0.7901412523512629</v>
       </c>
       <c r="P434" t="s">
         <v>450</v>
@@ -26731,19 +26731,19 @@
         <v>0</v>
       </c>
       <c r="K436">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L436">
         <v>1</v>
       </c>
       <c r="M436">
-        <v>1.545454545454545</v>
+        <v>1.5</v>
       </c>
       <c r="N436">
-        <v>2.3879864611934</v>
+        <v>2.29128784747792</v>
       </c>
       <c r="O436">
-        <v>1.545167710183964</v>
+        <v>1.527525231651947</v>
       </c>
       <c r="P436" t="s">
         <v>452</v>
@@ -26793,13 +26793,13 @@
         <v>0</v>
       </c>
       <c r="M437">
-        <v>2.181818181818182</v>
+        <v>2</v>
       </c>
       <c r="N437">
-        <v>2.405228464604173</v>
+        <v>2.380476142847617</v>
       </c>
       <c r="O437">
-        <v>1.102396379610246</v>
+        <v>1.190238071423808</v>
       </c>
       <c r="P437" t="s">
         <v>453</v>
@@ -27011,19 +27011,19 @@
         <v>0</v>
       </c>
       <c r="K441">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L441">
         <v>2</v>
       </c>
       <c r="M441">
-        <v>3.090909090909091</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="N441">
-        <v>3.088234136629642</v>
+        <v>3.012704580420869</v>
       </c>
       <c r="O441">
-        <v>0.9991345736154723</v>
+        <v>1.032927284715727</v>
       </c>
       <c r="P441" t="s">
         <v>457</v>
@@ -27067,19 +27067,19 @@
         <v>0</v>
       </c>
       <c r="K442">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L442">
         <v>0</v>
       </c>
       <c r="M442">
-        <v>0.3636363636363636</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="N442">
-        <v>0.4810456929208347</v>
+        <v>0.4930066485916347</v>
       </c>
       <c r="O442">
-        <v>1.322875655532295</v>
+        <v>1.183215956619923</v>
       </c>
       <c r="P442" t="s">
         <v>458</v>
@@ -27185,13 +27185,13 @@
         <v>2</v>
       </c>
       <c r="M444">
-        <v>1.909090909090909</v>
+        <v>1.75</v>
       </c>
       <c r="N444">
-        <v>2.502890890533855</v>
+        <v>2.453738644055909</v>
       </c>
       <c r="O444">
-        <v>1.311038085517734</v>
+        <v>1.402136368031948</v>
       </c>
       <c r="P444" t="s">
         <v>460</v>
@@ -27235,19 +27235,19 @@
         <v>0</v>
       </c>
       <c r="K445">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L445">
         <v>0</v>
       </c>
       <c r="M445">
-        <v>1</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="N445">
-        <v>0.6030226891555273</v>
+        <v>0.6400954789890506</v>
       </c>
       <c r="O445">
-        <v>0.6030226891555273</v>
+        <v>0.5908573652206621</v>
       </c>
       <c r="P445" t="s">
         <v>461</v>
@@ -27297,13 +27297,13 @@
         <v>1</v>
       </c>
       <c r="M446">
-        <v>2.272727272727273</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="N446">
-        <v>3.164890033732584</v>
+        <v>3.094574104604523</v>
       </c>
       <c r="O446">
-        <v>1.392551614842337</v>
+        <v>1.485395570210171</v>
       </c>
       <c r="P446" t="s">
         <v>462</v>
@@ -27353,13 +27353,13 @@
         <v>3</v>
       </c>
       <c r="M447">
-        <v>2.909090909090909</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="N447">
-        <v>3.752684989190962</v>
+        <v>3.681787005729087</v>
       </c>
       <c r="O447">
-        <v>1.289985465034393</v>
+        <v>1.380670127148408</v>
       </c>
       <c r="P447" t="s">
         <v>463</v>
@@ -27459,19 +27459,19 @@
         <v>2</v>
       </c>
       <c r="K449">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L449">
         <v>5</v>
       </c>
       <c r="M449">
-        <v>3.454545454545455</v>
+        <v>3.25</v>
       </c>
       <c r="N449">
-        <v>3.551277269931747</v>
+        <v>3.467107343785787</v>
       </c>
       <c r="O449">
-        <v>1.028001314980242</v>
+        <v>1.066802259626396</v>
       </c>
       <c r="P449" t="s">
         <v>465</v>
@@ -27801,13 +27801,13 @@
         <v>1</v>
       </c>
       <c r="M455">
-        <v>1.727272727272727</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="N455">
-        <v>1.8630819574472</v>
+        <v>1.846543317180028</v>
       </c>
       <c r="O455">
-        <v>1.0786263964168</v>
+        <v>1.166237884534755</v>
       </c>
       <c r="P455" t="s">
         <v>471</v>
@@ -27851,19 +27851,19 @@
         <v>2</v>
       </c>
       <c r="K456">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="L456">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M456">
-        <v>3.545454545454545</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="N456">
-        <v>2.3879864611934</v>
+        <v>2.59673940848048</v>
       </c>
       <c r="O456">
-        <v>0.6735346429007024</v>
+        <v>0.6629972957822503</v>
       </c>
       <c r="P456" t="s">
         <v>472</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="M457">
-        <v>0.1818181818181818</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="N457">
-        <v>0.3856946079199349</v>
+        <v>0.3726779962499649</v>
       </c>
       <c r="O457">
-        <v>2.121320343559642</v>
+        <v>2.236067977499789</v>
       </c>
       <c r="P457" t="s">
         <v>473</v>
@@ -27963,19 +27963,19 @@
         <v>1</v>
       </c>
       <c r="K458">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="L458">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M458">
-        <v>2.272727272727273</v>
+        <v>2.75</v>
       </c>
       <c r="N458">
-        <v>1.76279267542412</v>
+        <v>2.313907229485804</v>
       </c>
       <c r="O458">
-        <v>0.7756287771866126</v>
+        <v>0.8414208107221104</v>
       </c>
       <c r="P458" t="s">
         <v>474</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="K459">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L459">
         <v>3</v>
       </c>
       <c r="M459">
-        <v>2.636363636363636</v>
+        <v>2.5</v>
       </c>
       <c r="N459">
-        <v>2.226808857075616</v>
+        <v>2.179449471770337</v>
       </c>
       <c r="O459">
-        <v>0.844651635442475</v>
+        <v>0.8717797887081348</v>
       </c>
       <c r="P459" t="s">
         <v>475</v>
@@ -28081,13 +28081,13 @@
         <v>0</v>
       </c>
       <c r="M460">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="N460">
-        <v>2.132007163556104</v>
+        <v>2.059867849051379</v>
       </c>
       <c r="O460">
-        <v>2.132007163556104</v>
+        <v>2.247128562601505</v>
       </c>
       <c r="P460" t="s">
         <v>476</v>
@@ -28137,13 +28137,13 @@
         <v>0</v>
       </c>
       <c r="M461">
-        <v>0.3636363636363636</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="N461">
-        <v>0.4810456929208347</v>
+        <v>0.4714045207910317</v>
       </c>
       <c r="O461">
-        <v>1.322875655532295</v>
+        <v>1.414213562373095</v>
       </c>
       <c r="P461" t="s">
         <v>477</v>
@@ -28187,19 +28187,19 @@
         <v>0</v>
       </c>
       <c r="K462">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="L462">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M462">
-        <v>2.545454545454545</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="N462">
-        <v>2.499586742703185</v>
+        <v>4.192420409368422</v>
       </c>
       <c r="O462">
-        <v>0.9819805060619657</v>
+        <v>1.169977788660955</v>
       </c>
       <c r="P462" t="s">
         <v>478</v>
@@ -28299,19 +28299,19 @@
         <v>0</v>
       </c>
       <c r="K464">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L464">
         <v>0</v>
       </c>
       <c r="M464">
-        <v>1.454545454545455</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="N464">
-        <v>1.616035348602834</v>
+        <v>1.699673171197595</v>
       </c>
       <c r="O464">
-        <v>1.111024302164448</v>
+        <v>1.019803902718557</v>
       </c>
       <c r="P464" t="s">
         <v>480</v>
@@ -28355,19 +28355,19 @@
         <v>0</v>
       </c>
       <c r="K465">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L465">
         <v>0</v>
       </c>
       <c r="M465">
-        <v>1.363636363636364</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="N465">
-        <v>1.067940011315521</v>
+        <v>2.099933861392359</v>
       </c>
       <c r="O465">
-        <v>0.7831560082980489</v>
+        <v>1.095617666813405</v>
       </c>
       <c r="P465" t="s">
         <v>481</v>
@@ -28411,19 +28411,19 @@
         <v>0</v>
       </c>
       <c r="K466">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L466">
         <v>3</v>
       </c>
       <c r="M466">
-        <v>3.454545454545455</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="N466">
-        <v>3.701686013000423</v>
+        <v>3.546320471825536</v>
       </c>
       <c r="O466">
-        <v>1.071540687973807</v>
+        <v>1.03794745516845</v>
       </c>
       <c r="P466" t="s">
         <v>482</v>
@@ -28523,19 +28523,19 @@
         <v>3</v>
       </c>
       <c r="K468">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L468">
         <v>5</v>
       </c>
       <c r="M468">
-        <v>3.272727272727273</v>
+        <v>3.25</v>
       </c>
       <c r="N468">
-        <v>2.831347545890443</v>
+        <v>2.711856682545497</v>
       </c>
       <c r="O468">
-        <v>0.8651339723554131</v>
+        <v>0.8344174407832298</v>
       </c>
       <c r="P468" t="s">
         <v>484</v>
@@ -28579,19 +28579,19 @@
         <v>0</v>
       </c>
       <c r="K469">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="L469">
         <v>3</v>
       </c>
       <c r="M469">
-        <v>2.909090909090909</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="N469">
-        <v>2.274544727853964</v>
+        <v>2.3392781412697</v>
       </c>
       <c r="O469">
-        <v>0.7818747501998002</v>
+        <v>0.7387194130325367</v>
       </c>
       <c r="P469" t="s">
         <v>485</v>
@@ -28635,19 +28635,19 @@
         <v>0</v>
       </c>
       <c r="K470">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L470">
         <v>3</v>
       </c>
       <c r="M470">
-        <v>2.545454545454545</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="N470">
-        <v>2.74238238709061</v>
+        <v>2.660148283252061</v>
       </c>
       <c r="O470">
-        <v>1.077364509214168</v>
+        <v>1.100751013759474</v>
       </c>
       <c r="P470" t="s">
         <v>486</v>
@@ -28691,19 +28691,19 @@
         <v>2</v>
       </c>
       <c r="K471">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L471">
         <v>2</v>
       </c>
       <c r="M471">
-        <v>1</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="N471">
-        <v>2.558408596267325</v>
+        <v>2.812422838447701</v>
       </c>
       <c r="O471">
-        <v>2.558408596267325</v>
+        <v>1.985239650668965</v>
       </c>
       <c r="P471" t="s">
         <v>487</v>
@@ -28747,19 +28747,19 @@
         <v>0</v>
       </c>
       <c r="K472">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L472">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M472">
-        <v>0.8181818181818182</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="N472">
-        <v>0.8331955809010617</v>
+        <v>1.885618083164127</v>
       </c>
       <c r="O472">
-        <v>1.018350154434631</v>
+        <v>1.414213562373095</v>
       </c>
       <c r="P472" t="s">
         <v>488</v>
@@ -28865,13 +28865,13 @@
         <v>0</v>
       </c>
       <c r="M474">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="N474">
-        <v>0.2874797872880344</v>
+        <v>0.2763853991962833</v>
       </c>
       <c r="O474">
-        <v>3.162277660168379</v>
+        <v>3.3166247903554</v>
       </c>
       <c r="P474" t="s">
         <v>490</v>
@@ -28971,19 +28971,19 @@
         <v>0</v>
       </c>
       <c r="K476">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="L476">
         <v>4</v>
       </c>
       <c r="M476">
-        <v>3.454545454545455</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="N476">
-        <v>2.903403531394784</v>
+        <v>2.867441755680876</v>
       </c>
       <c r="O476">
-        <v>0.8404589169827005</v>
+        <v>0.7820295697311479</v>
       </c>
       <c r="P476" t="s">
         <v>492</v>
@@ -29033,13 +29033,13 @@
         <v>0</v>
       </c>
       <c r="M477">
-        <v>0.4545454545454545</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="N477">
-        <v>0.7820295697311479</v>
+        <v>0.7592027982620247</v>
       </c>
       <c r="O477">
-        <v>1.720465053408526</v>
+        <v>1.822086715828859</v>
       </c>
       <c r="P477" t="s">
         <v>493</v>
@@ -29089,13 +29089,13 @@
         <v>0</v>
       </c>
       <c r="M478">
-        <v>2.818181818181818</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="N478">
-        <v>2.289032420366213</v>
+        <v>2.325880956158811</v>
       </c>
       <c r="O478">
-        <v>0.8122373104525272</v>
+        <v>0.9003410152872814</v>
       </c>
       <c r="P478" t="s">
         <v>494</v>
@@ -29145,13 +29145,13 @@
         <v>6</v>
       </c>
       <c r="M479">
-        <v>5.090909090909091</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="N479">
-        <v>4.699217448480031</v>
+        <v>4.714045207910316</v>
       </c>
       <c r="O479">
-        <v>0.9230605702371489</v>
+        <v>1.010152544552211</v>
       </c>
       <c r="P479" t="s">
         <v>495</v>
@@ -29195,19 +29195,19 @@
         <v>0</v>
       </c>
       <c r="K480">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L480">
         <v>0</v>
       </c>
       <c r="M480">
-        <v>0.9090909090909091</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="N480">
-        <v>0.8999540851465149</v>
+        <v>0.9860132971832695</v>
       </c>
       <c r="O480">
-        <v>0.9899494936611664</v>
+        <v>0.8451542547285167</v>
       </c>
       <c r="P480" t="s">
         <v>496</v>
@@ -29251,19 +29251,19 @@
         <v>2</v>
       </c>
       <c r="K481">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L481">
         <v>7</v>
       </c>
       <c r="M481">
-        <v>3.272727272727273</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="N481">
-        <v>3.305392538672335</v>
+        <v>3.184162195757134</v>
       </c>
       <c r="O481">
-        <v>1.009981053483213</v>
+        <v>1.005524903923305</v>
       </c>
       <c r="P481" t="s">
         <v>497</v>
@@ -29307,19 +29307,19 @@
         <v>0</v>
       </c>
       <c r="K482">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L482">
         <v>0</v>
       </c>
       <c r="M482">
-        <v>1.181818181818182</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="N482">
-        <v>1.266217116107647</v>
+        <v>1.21335164821342</v>
       </c>
       <c r="O482">
-        <v>1.071414482860317</v>
+        <v>1.040015698468645</v>
       </c>
       <c r="P482" t="s">
         <v>498</v>
@@ -29369,13 +29369,13 @@
         <v>0</v>
       </c>
       <c r="M483">
-        <v>0.8181818181818182</v>
+        <v>0.75</v>
       </c>
       <c r="N483">
-        <v>0.385694607919935</v>
+        <v>0.4330127018922193</v>
       </c>
       <c r="O483">
-        <v>0.4714045207910316</v>
+        <v>0.5773502691896257</v>
       </c>
       <c r="P483" t="s">
         <v>499</v>
@@ -29419,19 +29419,19 @@
         <v>0</v>
       </c>
       <c r="K484">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L484">
         <v>6</v>
       </c>
       <c r="M484">
-        <v>3.272727272727273</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="N484">
-        <v>3.440161441531727</v>
+        <v>3.312434485725299</v>
       </c>
       <c r="O484">
-        <v>1.051160440468028</v>
+        <v>1.046031942860621</v>
       </c>
       <c r="P484" t="s">
         <v>500</v>
@@ -29481,13 +29481,13 @@
         <v>4</v>
       </c>
       <c r="M485">
-        <v>3.363636363636364</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="N485">
-        <v>2.869042516010818</v>
+        <v>2.89995210688422</v>
       </c>
       <c r="O485">
-        <v>0.8529585858410541</v>
+        <v>0.9405250076381252</v>
       </c>
       <c r="P485" t="s">
         <v>501</v>
@@ -29593,13 +29593,13 @@
         <v>0</v>
       </c>
       <c r="M487">
-        <v>1.636363636363636</v>
+        <v>1.5</v>
       </c>
       <c r="N487">
-        <v>1.149919149152138</v>
+        <v>1.190238071423808</v>
       </c>
       <c r="O487">
-        <v>0.7027283689263064</v>
+        <v>0.7934920476158722</v>
       </c>
       <c r="P487" t="s">
         <v>503</v>
@@ -29649,13 +29649,13 @@
         <v>0</v>
       </c>
       <c r="M488">
-        <v>2</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="N488">
-        <v>2.522624895547565</v>
+        <v>2.477678124553084</v>
       </c>
       <c r="O488">
-        <v>1.261312447773782</v>
+        <v>1.351460795210773</v>
       </c>
       <c r="P488" t="s">
         <v>504</v>
@@ -29761,13 +29761,13 @@
         <v>1</v>
       </c>
       <c r="M490">
-        <v>0.7272727272727273</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N490">
-        <v>2.004127971368055</v>
+        <v>1.929306150465037</v>
       </c>
       <c r="O490">
-        <v>2.755675960631075</v>
+        <v>2.893959225697556</v>
       </c>
       <c r="P490" t="s">
         <v>506</v>
@@ -29867,19 +29867,19 @@
         <v>0</v>
       </c>
       <c r="K492">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L492">
         <v>0</v>
       </c>
       <c r="M492">
-        <v>1.818181818181818</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="N492">
-        <v>2.081004207683563</v>
+        <v>1.993043457183566</v>
       </c>
       <c r="O492">
-        <v>1.14455231422596</v>
+        <v>1.087114613009218</v>
       </c>
       <c r="P492" t="s">
         <v>508</v>
@@ -29979,19 +29979,19 @@
         <v>0</v>
       </c>
       <c r="K494">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L494">
         <v>1</v>
       </c>
       <c r="M494">
-        <v>2.545454545454545</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="N494">
-        <v>1.49931113658824</v>
+        <v>1.440968038815882</v>
       </c>
       <c r="O494">
-        <v>0.5890150893739515</v>
+        <v>0.5577940795416316</v>
       </c>
       <c r="P494" t="s">
         <v>510</v>
@@ -30433,13 +30433,13 @@
         <v>0</v>
       </c>
       <c r="M502">
-        <v>0.2</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="N502">
-        <v>0.6000000000000001</v>
+        <v>0.5749595745760688</v>
       </c>
       <c r="O502">
-        <v>3</v>
+        <v>3.162277660168379</v>
       </c>
       <c r="P502" t="s">
         <v>517</v>
@@ -30539,19 +30539,19 @@
         <v>0</v>
       </c>
       <c r="K504">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L504">
         <v>0</v>
       </c>
       <c r="M504">
-        <v>1.545454545454545</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="N504">
-        <v>0.9875254992000196</v>
+        <v>0.9537935951882996</v>
       </c>
       <c r="O504">
-        <v>0.6389870877176598</v>
+        <v>0.6023959548557682</v>
       </c>
       <c r="P504" t="s">
         <v>519</v>
@@ -30601,13 +30601,13 @@
         <v>2</v>
       </c>
       <c r="M505">
-        <v>1.7</v>
+        <v>1.545454545454545</v>
       </c>
       <c r="N505">
-        <v>2.72213151776324</v>
+        <v>2.641061644787991</v>
       </c>
       <c r="O505">
-        <v>1.601253833978376</v>
+        <v>1.708922240745171</v>
       </c>
       <c r="P505" t="s">
         <v>520</v>
@@ -30657,13 +30657,13 @@
         <v>0</v>
       </c>
       <c r="M506">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="N506">
-        <v>0.2874797872880345</v>
+        <v>0.2763853991962833</v>
       </c>
       <c r="O506">
-        <v>3.162277660168379</v>
+        <v>3.3166247903554</v>
       </c>
       <c r="P506" t="s">
         <v>521</v>
@@ -30707,19 +30707,19 @@
         <v>0</v>
       </c>
       <c r="K507">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L507">
         <v>0</v>
       </c>
       <c r="M507">
-        <v>1.8</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="N507">
-        <v>0.8717797887081347</v>
+        <v>0.8331955809010618</v>
       </c>
       <c r="O507">
-        <v>0.4843221048378526</v>
+        <v>0.458257569495584</v>
       </c>
       <c r="P507" t="s">
         <v>522</v>
@@ -30769,13 +30769,13 @@
         <v>0</v>
       </c>
       <c r="M508">
-        <v>0.6363636363636364</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="N508">
-        <v>1.720080720765863</v>
+        <v>1.656217242862649</v>
       </c>
       <c r="O508">
-        <v>2.702983989774928</v>
+        <v>2.839229559193113</v>
       </c>
       <c r="P508" t="s">
         <v>523</v>
@@ -30819,19 +30819,19 @@
         <v>0</v>
       </c>
       <c r="K509">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L509">
         <v>3</v>
       </c>
       <c r="M509">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="N509">
-        <v>3.218695387886216</v>
+        <v>3.015113445777637</v>
       </c>
       <c r="O509">
-        <v>1.788164104381231</v>
+        <v>1.507556722888818</v>
       </c>
       <c r="P509" t="s">
         <v>524</v>
@@ -30875,19 +30875,19 @@
         <v>0</v>
       </c>
       <c r="K510">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L510">
         <v>0</v>
       </c>
       <c r="M510">
-        <v>0.3636363636363636</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="N510">
-        <v>0.642824346533225</v>
+        <v>0.9537935951882998</v>
       </c>
       <c r="O510">
-        <v>1.767766952966369</v>
+        <v>1.635074734608514</v>
       </c>
       <c r="P510" t="s">
         <v>525</v>
@@ -30937,13 +30937,13 @@
         <v>0</v>
       </c>
       <c r="M511">
-        <v>1.181818181818182</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="N511">
-        <v>1.748671278333759</v>
+        <v>1.70579079087156</v>
       </c>
       <c r="O511">
-        <v>1.479644927820873</v>
+        <v>1.574576114650671</v>
       </c>
       <c r="P511" t="s">
         <v>526</v>
@@ -31043,19 +31043,19 @@
         <v>0</v>
       </c>
       <c r="K513">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L513">
         <v>3</v>
       </c>
       <c r="M513">
-        <v>2.909090909090909</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="N513">
-        <v>2.502890890533855</v>
+        <v>2.409472049133493</v>
       </c>
       <c r="O513">
-        <v>0.8603687436210128</v>
+        <v>0.8504018996941739</v>
       </c>
       <c r="P513" t="s">
         <v>528</v>
@@ -31099,19 +31099,19 @@
         <v>0</v>
       </c>
       <c r="K514">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L514">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M514">
-        <v>0.4545454545454545</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="N514">
-        <v>0.6555547773570889</v>
+        <v>1.404358295529393</v>
       </c>
       <c r="O514">
-        <v>1.442220510185596</v>
+        <v>1.685229954635272</v>
       </c>
       <c r="P514" t="s">
         <v>529</v>
@@ -31161,13 +31161,13 @@
         <v>2</v>
       </c>
       <c r="M515">
-        <v>2.1</v>
+        <v>1.909090909090909</v>
       </c>
       <c r="N515">
-        <v>1.513274595042156</v>
+        <v>1.564059139462296</v>
       </c>
       <c r="O515">
-        <v>0.720606950020074</v>
+        <v>0.8192690730516787</v>
       </c>
       <c r="P515" t="s">
         <v>530</v>
@@ -31217,13 +31217,13 @@
         <v>0</v>
       </c>
       <c r="M516">
-        <v>0.8181818181818182</v>
+        <v>0.75</v>
       </c>
       <c r="N516">
-        <v>1.192261549873091</v>
+        <v>1.163686670314078</v>
       </c>
       <c r="O516">
-        <v>1.457208560956</v>
+        <v>1.551582227085438</v>
       </c>
       <c r="P516" t="s">
         <v>531</v>
@@ -31273,13 +31273,13 @@
         <v>6</v>
       </c>
       <c r="M517">
-        <v>2.363636363636364</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="N517">
-        <v>3.674796896619589</v>
+        <v>3.578485092263982</v>
       </c>
       <c r="O517">
-        <v>1.554721763954441</v>
+        <v>1.651608504121838</v>
       </c>
       <c r="P517" t="s">
         <v>532</v>
@@ -31435,19 +31435,19 @@
         <v>0</v>
       </c>
       <c r="K520">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L520">
         <v>0</v>
       </c>
       <c r="M520">
-        <v>2.4</v>
+        <v>2.454545454545455</v>
       </c>
       <c r="N520">
-        <v>1.356465996625054</v>
+        <v>1.304790917673393</v>
       </c>
       <c r="O520">
-        <v>0.5651941652604391</v>
+        <v>0.531581484978049</v>
       </c>
       <c r="P520" t="s">
         <v>535</v>
@@ -31497,13 +31497,13 @@
         <v>2</v>
       </c>
       <c r="M521">
-        <v>2.8</v>
+        <v>2.545454545454545</v>
       </c>
       <c r="N521">
-        <v>3.4</v>
+        <v>3.340213285613425</v>
       </c>
       <c r="O521">
-        <v>1.214285714285714</v>
+        <v>1.31222664791956</v>
       </c>
       <c r="P521" t="s">
         <v>536</v>
@@ -31553,13 +31553,13 @@
         <v>0</v>
       </c>
       <c r="M522">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="N522">
-        <v>0.2874797872880344</v>
+        <v>0.2763853991962833</v>
       </c>
       <c r="O522">
-        <v>3.162277660168379</v>
+        <v>3.3166247903554</v>
       </c>
       <c r="P522" t="s">
         <v>537</v>
@@ -31609,13 +31609,13 @@
         <v>0</v>
       </c>
       <c r="M523">
-        <v>0.2727272727272727</v>
+        <v>0.25</v>
       </c>
       <c r="N523">
-        <v>0.4453617714151233</v>
+        <v>0.4330127018922193</v>
       </c>
       <c r="O523">
-        <v>1.632993161855452</v>
+        <v>1.732050807568877</v>
       </c>
       <c r="P523" t="s">
         <v>538</v>
@@ -31665,13 +31665,13 @@
         <v>1</v>
       </c>
       <c r="M524">
-        <v>1.545454545454545</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="N524">
-        <v>1.876342494595481</v>
+        <v>1.846543317180028</v>
       </c>
       <c r="O524">
-        <v>1.214103967091194</v>
+        <v>1.303442341538843</v>
       </c>
       <c r="P524" t="s">
         <v>539</v>
@@ -31721,13 +31721,13 @@
         <v>0</v>
       </c>
       <c r="M525">
-        <v>1.545454545454545</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="N525">
-        <v>1.671343300986385</v>
+        <v>1.656217242862649</v>
       </c>
       <c r="O525">
-        <v>1.081457430050014</v>
+        <v>1.169094524373634</v>
       </c>
       <c r="P525" t="s">
         <v>540</v>
@@ -31833,13 +31833,13 @@
         <v>3</v>
       </c>
       <c r="M527">
-        <v>3.636363636363636</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="N527">
-        <v>4.073701182256015</v>
+        <v>4.027681991198191</v>
       </c>
       <c r="O527">
-        <v>1.120267825120404</v>
+        <v>1.208304597359457</v>
       </c>
       <c r="P527" t="s">
         <v>542</v>
@@ -31883,19 +31883,19 @@
         <v>0</v>
       </c>
       <c r="K528">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L528">
         <v>0</v>
       </c>
       <c r="M528">
-        <v>1.909090909090909</v>
+        <v>2</v>
       </c>
       <c r="N528">
-        <v>1.621141318193364</v>
+        <v>1.58113883008419</v>
       </c>
       <c r="O528">
-        <v>0.8491692619108099</v>
+        <v>0.7905694150420949</v>
       </c>
       <c r="P528" t="s">
         <v>543</v>
@@ -31945,13 +31945,13 @@
         <v>0</v>
       </c>
       <c r="M529">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="N529">
-        <v>1.044465935734187</v>
+        <v>1.037491633165728</v>
       </c>
       <c r="O529">
-        <v>1.044465935734187</v>
+        <v>1.131809054362612</v>
       </c>
       <c r="P529" t="s">
         <v>544</v>
@@ -31995,19 +31995,19 @@
         <v>0</v>
       </c>
       <c r="K530">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L530">
         <v>5</v>
       </c>
       <c r="M530">
-        <v>2.363636363636364</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="N530">
-        <v>2.993105024209878</v>
+        <v>2.867441755680876</v>
       </c>
       <c r="O530">
-        <v>1.266313664088794</v>
+        <v>1.228903609577518</v>
       </c>
       <c r="P530" t="s">
         <v>545</v>
@@ -32057,13 +32057,13 @@
         <v>0</v>
       </c>
       <c r="M531">
-        <v>0.2</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="N531">
-        <v>0.4000000000000001</v>
+        <v>0.3856946079199349</v>
       </c>
       <c r="O531">
-        <v>2</v>
+        <v>2.121320343559642</v>
       </c>
       <c r="P531" t="s">
         <v>546</v>
@@ -32113,13 +32113,13 @@
         <v>0</v>
       </c>
       <c r="M532">
-        <v>0.1818181818181818</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="N532">
-        <v>0.3856946079199349</v>
+        <v>0.3726779962499649</v>
       </c>
       <c r="O532">
-        <v>2.121320343559642</v>
+        <v>2.236067977499789</v>
       </c>
       <c r="P532" t="s">
         <v>547</v>
@@ -32169,13 +32169,13 @@
         <v>0</v>
       </c>
       <c r="M533">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
       </c>
       <c r="N533">
-        <v>0.8907235428302466</v>
+        <v>0.8660254037844386</v>
       </c>
       <c r="O533">
-        <v>1.632993161855452</v>
+        <v>1.732050807568877</v>
       </c>
       <c r="P533" t="s">
         <v>548</v>
@@ -32219,19 +32219,19 @@
         <v>0</v>
       </c>
       <c r="K534">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L534">
         <v>0</v>
       </c>
       <c r="M534">
-        <v>2.7</v>
+        <v>2.545454545454545</v>
       </c>
       <c r="N534">
-        <v>2.72213151776324</v>
+        <v>2.641061644787991</v>
       </c>
       <c r="O534">
-        <v>1.00819685843083</v>
+        <v>1.037559931880996</v>
       </c>
       <c r="P534" t="s">
         <v>549</v>
@@ -32275,19 +32275,19 @@
         <v>0</v>
       </c>
       <c r="K535">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L535">
         <v>3</v>
       </c>
       <c r="M535">
-        <v>2.090909090909091</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="N535">
-        <v>2.5745095015466</v>
+        <v>2.69129254365919</v>
       </c>
       <c r="O535">
-        <v>1.231287152913591</v>
+        <v>1.113638293927941</v>
       </c>
       <c r="P535" t="s">
         <v>550</v>
@@ -32331,19 +32331,19 @@
         <v>0</v>
       </c>
       <c r="K536">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L536">
         <v>0</v>
       </c>
       <c r="M536">
-        <v>2.181818181818182</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="N536">
-        <v>0.5749595745760689</v>
+        <v>0.5527707983925666</v>
       </c>
       <c r="O536">
-        <v>0.263523138347365</v>
+        <v>0.2551249838734923</v>
       </c>
       <c r="P536" t="s">
         <v>551</v>
@@ -32387,19 +32387,19 @@
         <v>0</v>
       </c>
       <c r="K537">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L537">
         <v>0</v>
       </c>
       <c r="M537">
-        <v>0.9090909090909091</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="N537">
-        <v>1.083306844346635</v>
+        <v>1.037491633165728</v>
       </c>
       <c r="O537">
-        <v>1.191637528781298</v>
+        <v>1.131809054362612</v>
       </c>
       <c r="P537" t="s">
         <v>552</v>
@@ -32499,19 +32499,19 @@
         <v>0</v>
       </c>
       <c r="K539">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="L539">
         <v>5</v>
       </c>
       <c r="M539">
-        <v>2.454545454545455</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="N539">
-        <v>3.677045166573942</v>
+        <v>3.601697130829051</v>
       </c>
       <c r="O539">
-        <v>1.498055438233828</v>
+        <v>1.271187222645547</v>
       </c>
       <c r="P539" t="s">
         <v>554</v>
@@ -32673,13 +32673,13 @@
         <v>0</v>
       </c>
       <c r="M542">
-        <v>0.3636363636363636</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="N542">
-        <v>1.149919149152138</v>
+        <v>1.105541596785133</v>
       </c>
       <c r="O542">
-        <v>3.162277660168379</v>
+        <v>3.3166247903554</v>
       </c>
       <c r="P542" t="s">
         <v>557</v>
@@ -32841,13 +32841,13 @@
         <v>0</v>
       </c>
       <c r="M545">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="N545">
-        <v>0.3</v>
+        <v>0.2874797872880344</v>
       </c>
       <c r="O545">
-        <v>3</v>
+        <v>3.162277660168379</v>
       </c>
       <c r="P545" t="s">
         <v>560</v>
@@ -32897,13 +32897,13 @@
         <v>0</v>
       </c>
       <c r="M546">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
       </c>
       <c r="N546">
-        <v>0.4979295977319692</v>
+        <v>0.5</v>
       </c>
       <c r="O546">
-        <v>0.9128709291752769</v>
+        <v>1</v>
       </c>
       <c r="P546" t="s">
         <v>561</v>
@@ -32947,19 +32947,19 @@
         <v>0</v>
       </c>
       <c r="K547">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L547">
         <v>0</v>
       </c>
       <c r="M547">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="N547">
-        <v>0</v>
+        <v>0.2763853991962833</v>
       </c>
       <c r="O547">
-        <v>0</v>
+        <v>3.3166247903554</v>
       </c>
       <c r="P547" t="s">
         <v>562</v>
@@ -33009,13 +33009,13 @@
         <v>0</v>
       </c>
       <c r="M548">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="N548">
-        <v>0.3</v>
+        <v>0.2874797872880344</v>
       </c>
       <c r="O548">
-        <v>3</v>
+        <v>3.162277660168379</v>
       </c>
       <c r="P548" t="s">
         <v>563</v>
@@ -33115,19 +33115,19 @@
         <v>0</v>
       </c>
       <c r="K550">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L550">
         <v>0</v>
       </c>
       <c r="M550">
-        <v>0.2727272727272727</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="N550">
-        <v>0.4453617714151233</v>
+        <v>1.624465724134827</v>
       </c>
       <c r="O550">
-        <v>1.632993161855452</v>
+        <v>1.949358868961793</v>
       </c>
       <c r="P550" t="s">
         <v>565</v>
@@ -33289,13 +33289,13 @@
         <v>0</v>
       </c>
       <c r="M553">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
       </c>
       <c r="N553">
-        <v>0.4979295977319692</v>
+        <v>0.5</v>
       </c>
       <c r="O553">
-        <v>0.9128709291752769</v>
+        <v>1</v>
       </c>
       <c r="P553" t="s">
         <v>568</v>
@@ -33513,13 +33513,13 @@
         <v>0</v>
       </c>
       <c r="M557">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="N557">
-        <v>0.2874797872880344</v>
+        <v>0.2763853991962833</v>
       </c>
       <c r="O557">
-        <v>3.162277660168379</v>
+        <v>3.3166247903554</v>
       </c>
       <c r="P557" t="s">
         <v>572</v>
@@ -33625,13 +33625,13 @@
         <v>2</v>
       </c>
       <c r="M559">
-        <v>0.6363636363636364</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="N559">
-        <v>1.720080720765863</v>
+        <v>1.656217242862649</v>
       </c>
       <c r="O559">
-        <v>2.702983989774928</v>
+        <v>2.839229559193113</v>
       </c>
       <c r="P559" t="s">
         <v>574</v>
@@ -33681,13 +33681,13 @@
         <v>0</v>
       </c>
       <c r="M560">
-        <v>0.2</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="N560">
-        <v>0.4000000000000001</v>
+        <v>0.3856946079199349</v>
       </c>
       <c r="O560">
-        <v>2</v>
+        <v>2.121320343559642</v>
       </c>
       <c r="P560" t="s">
         <v>575</v>
@@ -33849,13 +33849,13 @@
         <v>0</v>
       </c>
       <c r="M563">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="N563">
-        <v>0.2874797872880344</v>
+        <v>0.2763853991962833</v>
       </c>
       <c r="O563">
-        <v>3.162277660168379</v>
+        <v>3.3166247903554</v>
       </c>
       <c r="P563" t="s">
         <v>578</v>
@@ -33961,13 +33961,13 @@
         <v>0</v>
       </c>
       <c r="M565">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="N565">
-        <v>0.3</v>
+        <v>0.2874797872880344</v>
       </c>
       <c r="O565">
-        <v>3</v>
+        <v>3.162277660168379</v>
       </c>
       <c r="P565" t="s">
         <v>580</v>
@@ -34073,13 +34073,13 @@
         <v>0</v>
       </c>
       <c r="M567">
-        <v>0.1818181818181818</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="N567">
-        <v>0.385694607919935</v>
+        <v>0.3726779962499649</v>
       </c>
       <c r="O567">
-        <v>2.121320343559642</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="P567" t="s">
         <v>582</v>
@@ -34179,19 +34179,19 @@
         <v>0</v>
       </c>
       <c r="K569">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L569">
         <v>0</v>
       </c>
       <c r="M569">
-        <v>0.3636363636363636</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="N569">
-        <v>0.4810456929208347</v>
+        <v>0.4930066485916347</v>
       </c>
       <c r="O569">
-        <v>1.322875655532295</v>
+        <v>1.183215956619923</v>
       </c>
       <c r="P569" t="s">
         <v>584</v>
@@ -34241,13 +34241,13 @@
         <v>0</v>
       </c>
       <c r="M570">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="N570">
-        <v>0.3</v>
+        <v>0.2874797872880344</v>
       </c>
       <c r="O570">
-        <v>3</v>
+        <v>3.162277660168379</v>
       </c>
       <c r="P570" t="s">
         <v>585</v>
@@ -34297,13 +34297,13 @@
         <v>0</v>
       </c>
       <c r="M571">
-        <v>0.2727272727272727</v>
+        <v>0.25</v>
       </c>
       <c r="N571">
-        <v>0.4453617714151233</v>
+        <v>0.4330127018922193</v>
       </c>
       <c r="O571">
-        <v>1.632993161855452</v>
+        <v>1.732050807568877</v>
       </c>
       <c r="P571" t="s">
         <v>586</v>
@@ -34465,13 +34465,13 @@
         <v>0</v>
       </c>
       <c r="M574">
-        <v>0.3</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="N574">
-        <v>0.4582575694955839</v>
+        <v>0.4453617714151233</v>
       </c>
       <c r="O574">
-        <v>1.527525231651947</v>
+        <v>1.632993161855452</v>
       </c>
       <c r="P574" t="s">
         <v>589</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="K575">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L575">
         <v>1</v>
       </c>
       <c r="M575">
-        <v>2.4</v>
+        <v>2.272727272727273</v>
       </c>
       <c r="N575">
-        <v>2.690724809414742</v>
+        <v>2.596883064924672</v>
       </c>
       <c r="O575">
-        <v>1.121135337256143</v>
+        <v>1.142628548566856</v>
       </c>
       <c r="P575" t="s">
         <v>590</v>
@@ -34577,13 +34577,13 @@
         <v>0</v>
       </c>
       <c r="M576">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="N576">
-        <v>0.5</v>
+        <v>0.4979295977319692</v>
       </c>
       <c r="O576">
-        <v>1</v>
+        <v>1.095445115010332</v>
       </c>
       <c r="P576" t="s">
         <v>591</v>
@@ -34627,19 +34627,19 @@
         <v>0</v>
       </c>
       <c r="K577">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L577">
         <v>3</v>
       </c>
       <c r="M577">
-        <v>1.5</v>
+        <v>1.454545454545455</v>
       </c>
       <c r="N577">
-        <v>2.765863337187866</v>
+        <v>2.641061644787991</v>
       </c>
       <c r="O577">
-        <v>1.843908891458578</v>
+        <v>1.815729880791743</v>
       </c>
       <c r="P577" t="s">
         <v>592</v>
@@ -34683,19 +34683,19 @@
         <v>0</v>
       </c>
       <c r="K578">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L578">
         <v>0</v>
       </c>
       <c r="M578">
-        <v>2.4</v>
+        <v>2.454545454545455</v>
       </c>
       <c r="N578">
-        <v>1.356465996625054</v>
+        <v>1.304790917673393</v>
       </c>
       <c r="O578">
-        <v>0.5651941652604391</v>
+        <v>0.531581484978049</v>
       </c>
       <c r="P578" t="s">
         <v>593</v>
@@ -34801,13 +34801,13 @@
         <v>1</v>
       </c>
       <c r="M580">
-        <v>1.8</v>
+        <v>1.636363636363636</v>
       </c>
       <c r="N580">
-        <v>1.939071942966532</v>
+        <v>1.919882916540261</v>
       </c>
       <c r="O580">
-        <v>1.077262190536962</v>
+        <v>1.173261782330159</v>
       </c>
       <c r="P580" t="s">
         <v>595</v>
@@ -34851,19 +34851,19 @@
         <v>0</v>
       </c>
       <c r="K581">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L581">
         <v>0</v>
       </c>
       <c r="M581">
-        <v>0.7</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="N581">
-        <v>0.9</v>
+        <v>0.8624393618641034</v>
       </c>
       <c r="O581">
-        <v>1.285714285714286</v>
+        <v>1.185854122563142</v>
       </c>
       <c r="P581" t="s">
         <v>596</v>
@@ -34963,19 +34963,19 @@
         <v>0</v>
       </c>
       <c r="K583">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L583">
         <v>0</v>
       </c>
       <c r="M583">
-        <v>1.333333333333333</v>
+        <v>1.4</v>
       </c>
       <c r="N583">
-        <v>0.816496580927726</v>
+        <v>0.8</v>
       </c>
       <c r="O583">
-        <v>0.6123724356957946</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="P583" t="s">
         <v>598</v>
@@ -35019,19 +35019,19 @@
         <v>0</v>
       </c>
       <c r="K584">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L584">
         <v>2</v>
       </c>
       <c r="M584">
-        <v>1.888888888888889</v>
+        <v>2</v>
       </c>
       <c r="N584">
-        <v>2.643417167415627</v>
+        <v>2.529822128134704</v>
       </c>
       <c r="O584">
-        <v>1.399456147455332</v>
+        <v>1.264911064067352</v>
       </c>
       <c r="P584" t="s">
         <v>599</v>
@@ -35081,13 +35081,13 @@
         <v>0</v>
       </c>
       <c r="M585">
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
       <c r="N585">
-        <v>0.3142696805273544</v>
+        <v>0.3</v>
       </c>
       <c r="O585">
-        <v>2.82842712474619</v>
+        <v>3</v>
       </c>
       <c r="P585" t="s">
         <v>600</v>
@@ -35137,13 +35137,13 @@
         <v>2</v>
       </c>
       <c r="M586">
-        <v>1.444444444444444</v>
+        <v>1.3</v>
       </c>
       <c r="N586">
-        <v>2.362254625052144</v>
+        <v>2.282542442102665</v>
       </c>
       <c r="O586">
-        <v>1.635407048113023</v>
+        <v>1.755801878540512</v>
       </c>
       <c r="P586" t="s">
         <v>601</v>
@@ -35193,13 +35193,13 @@
         <v>1</v>
       </c>
       <c r="M587">
-        <v>1.875</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="N587">
-        <v>1.964529205687714</v>
+        <v>1.9436506316151</v>
       </c>
       <c r="O587">
-        <v>1.047748909700114</v>
+        <v>1.16619037896906</v>
       </c>
       <c r="P587" t="s">
         <v>602</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="M588">
-        <v>0.875</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="N588">
-        <v>0.9270248108869579</v>
+        <v>0.9162456945817025</v>
       </c>
       <c r="O588">
-        <v>1.059456926727952</v>
+        <v>1.178030178747903</v>
       </c>
       <c r="P588" t="s">
         <v>603</v>
@@ -35299,19 +35299,19 @@
         <v>1</v>
       </c>
       <c r="K589">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L589">
         <v>2</v>
       </c>
       <c r="M589">
-        <v>2.666666666666667</v>
+        <v>3</v>
       </c>
       <c r="N589">
         <v>3.16227766016838</v>
       </c>
       <c r="O589">
-        <v>1.185854122563142</v>
+        <v>1.05409255338946</v>
       </c>
       <c r="P589" t="s">
         <v>604</v>
@@ -35355,19 +35355,19 @@
         <v>0</v>
       </c>
       <c r="K590">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L590">
         <v>3</v>
       </c>
       <c r="M590">
-        <v>2.777777777777778</v>
+        <v>2.7</v>
       </c>
       <c r="N590">
-        <v>2.298684540619689</v>
+        <v>2.193171219946131</v>
       </c>
       <c r="O590">
-        <v>0.8275264346230879</v>
+        <v>0.8122856370170856</v>
       </c>
       <c r="P590" t="s">
         <v>605</v>
@@ -35579,19 +35579,19 @@
         <v>0</v>
       </c>
       <c r="K594">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L594">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M594">
-        <v>1.857142857142857</v>
+        <v>2.875</v>
       </c>
       <c r="N594">
-        <v>1.355261854357877</v>
+        <v>2.976470224947664</v>
       </c>
       <c r="O594">
-        <v>0.7297563831157798</v>
+        <v>1.035293991286144</v>
       </c>
       <c r="P594" t="s">
         <v>609</v>
@@ -35641,13 +35641,13 @@
         <v>4</v>
       </c>
       <c r="M595">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N595">
-        <v>3.418698582794336</v>
+        <v>3.299831645537222</v>
       </c>
       <c r="O595">
-        <v>1.519421592353038</v>
+        <v>1.649915822768611</v>
       </c>
       <c r="P595" t="s">
         <v>610</v>
@@ -35697,13 +35697,13 @@
         <v>0</v>
       </c>
       <c r="M596">
-        <v>1.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="N596">
-        <v>1.870828693386971</v>
+        <v>1.825741858350554</v>
       </c>
       <c r="O596">
-        <v>1.247219128924647</v>
+        <v>1.369306393762916</v>
       </c>
       <c r="P596" t="s">
         <v>611</v>
@@ -35865,13 +35865,13 @@
         <v>0</v>
       </c>
       <c r="M599">
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="N599">
-        <v>0.3307189138830738</v>
+        <v>0.3142696805273544</v>
       </c>
       <c r="O599">
-        <v>2.645751311064591</v>
+        <v>2.82842712474619</v>
       </c>
       <c r="P599" t="s">
         <v>614</v>
@@ -36083,19 +36083,19 @@
         <v>0</v>
       </c>
       <c r="K603">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L603">
         <v>0</v>
       </c>
       <c r="M603">
-        <v>0.1428571428571428</v>
+        <v>0.25</v>
       </c>
       <c r="N603">
-        <v>0.3499271061118827</v>
+        <v>0.4330127018922193</v>
       </c>
       <c r="O603">
-        <v>2.449489742783179</v>
+        <v>1.732050807568877</v>
       </c>
       <c r="P603" t="s">
         <v>618</v>
@@ -36145,13 +36145,13 @@
         <v>3</v>
       </c>
       <c r="M604">
-        <v>2.428571428571428</v>
+        <v>2.125</v>
       </c>
       <c r="N604">
-        <v>2.498979383505129</v>
+        <v>2.471714991660649</v>
       </c>
       <c r="O604">
-        <v>1.028991510855053</v>
+        <v>1.163159996075599</v>
       </c>
       <c r="P604" t="s">
         <v>619</v>
@@ -36425,13 +36425,13 @@
         <v>0</v>
       </c>
       <c r="M609">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="N609">
-        <v>0.372677996249965</v>
+        <v>0.3499271061118827</v>
       </c>
       <c r="O609">
-        <v>2.23606797749979</v>
+        <v>2.449489742783179</v>
       </c>
       <c r="P609" t="s">
         <v>624</v>
@@ -36475,19 +36475,19 @@
         <v>0</v>
       </c>
       <c r="K610">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L610">
         <v>1</v>
       </c>
       <c r="M610">
-        <v>5.4</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="N610">
-        <v>2.0591260281974</v>
+        <v>2.494438257849294</v>
       </c>
       <c r="O610">
-        <v>0.3813196348513703</v>
+        <v>0.5345224838248487</v>
       </c>
       <c r="P610" t="s">
         <v>625</v>
@@ -36531,19 +36531,19 @@
         <v>0</v>
       </c>
       <c r="K611">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L611">
         <v>1</v>
       </c>
       <c r="M611">
-        <v>3</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="N611">
-        <v>2.898275349237888</v>
+        <v>2.671869923646899</v>
       </c>
       <c r="O611">
-        <v>0.966091783079296</v>
+        <v>0.9430129142283175</v>
       </c>
       <c r="P611" t="s">
         <v>626</v>
@@ -36587,19 +36587,19 @@
         <v>0</v>
       </c>
       <c r="K612">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L612">
         <v>0</v>
       </c>
       <c r="M612">
-        <v>1.5</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="N612">
-        <v>0.7637626158259734</v>
+        <v>0.880630571852711</v>
       </c>
       <c r="O612">
-        <v>0.5091750772173156</v>
+        <v>0.5137011669140814</v>
       </c>
       <c r="P612" t="s">
         <v>627</v>
@@ -36643,19 +36643,19 @@
         <v>0</v>
       </c>
       <c r="K613">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="L613">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M613">
-        <v>2</v>
+        <v>3.428571428571428</v>
       </c>
       <c r="N613">
-        <v>2.886751345948129</v>
+        <v>3.06394436993246</v>
       </c>
       <c r="O613">
-        <v>1.443375672974065</v>
+        <v>0.8936504412303008</v>
       </c>
       <c r="P613" t="s">
         <v>628</v>
@@ -36755,19 +36755,19 @@
         <v>0</v>
       </c>
       <c r="K615">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="L615">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M615">
-        <v>1.333333333333333</v>
+        <v>3</v>
       </c>
       <c r="N615">
-        <v>2.13437474581095</v>
+        <v>3.464101615137754</v>
       </c>
       <c r="O615">
-        <v>1.600781059358212</v>
+        <v>1.154700538379251</v>
       </c>
       <c r="P615" t="s">
         <v>630</v>
@@ -36923,19 +36923,19 @@
         <v>0</v>
       </c>
       <c r="K618">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L618">
         <v>3</v>
       </c>
       <c r="M618">
-        <v>2.2</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="N618">
-        <v>3.429285639896449</v>
+        <v>3.131382371342656</v>
       </c>
       <c r="O618">
-        <v>1.558766199952931</v>
+        <v>1.445253402158149</v>
       </c>
       <c r="P618" t="s">
         <v>633</v>
@@ -36979,19 +36979,19 @@
         <v>0</v>
       </c>
       <c r="K619">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L619">
         <v>0</v>
       </c>
       <c r="M619">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="N619">
-        <v>0.3726779962499649</v>
+        <v>0</v>
       </c>
       <c r="O619">
-        <v>0.4472135954999579</v>
+        <v>0</v>
       </c>
       <c r="P619" t="s">
         <v>634</v>
@@ -37209,13 +37209,13 @@
         <v>0</v>
       </c>
       <c r="M623">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="N623">
-        <v>0.5</v>
+        <v>0.4948716593053935</v>
       </c>
       <c r="O623">
-        <v>1</v>
+        <v>1.154700538379251</v>
       </c>
       <c r="P623" t="s">
         <v>638</v>
@@ -37259,19 +37259,19 @@
         <v>0</v>
       </c>
       <c r="K624">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L624">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M624">
-        <v>1.333333333333333</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="N624">
-        <v>2.13437474581095</v>
+        <v>2.657296462534039</v>
       </c>
       <c r="O624">
-        <v>1.600781059358212</v>
+        <v>1.550089603144856</v>
       </c>
       <c r="P624" t="s">
         <v>639</v>
@@ -37315,19 +37315,19 @@
         <v>0</v>
       </c>
       <c r="K625">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L625">
         <v>0</v>
       </c>
       <c r="M625">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N625">
-        <v>0.4714045207910317</v>
+        <v>0.4517539514526256</v>
       </c>
       <c r="O625">
-        <v>0.7071067811865476</v>
+        <v>0.6324555320336759</v>
       </c>
       <c r="P625" t="s">
         <v>640</v>
@@ -37371,19 +37371,19 @@
         <v>0</v>
       </c>
       <c r="K626">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L626">
         <v>0</v>
       </c>
       <c r="M626">
-        <v>1.2</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="N626">
-        <v>0.7483314773547883</v>
+        <v>0.74535599249993</v>
       </c>
       <c r="O626">
-        <v>0.6236095644623236</v>
+        <v>0.5590169943749476</v>
       </c>
       <c r="P626" t="s">
         <v>641</v>
@@ -37539,19 +37539,19 @@
         <v>0</v>
       </c>
       <c r="K629">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L629">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M629">
-        <v>1.4</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="N629">
-        <v>2.33238075793812</v>
+        <v>2.981423969999719</v>
       </c>
       <c r="O629">
-        <v>1.665986255670086</v>
+        <v>1.277753129999879</v>
       </c>
       <c r="P629" t="s">
         <v>644</v>
@@ -37595,19 +37595,19 @@
         <v>0</v>
       </c>
       <c r="K630">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L630">
         <v>0</v>
       </c>
       <c r="M630">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N630">
-        <v>0.4898979485566357</v>
+        <v>0.4714045207910317</v>
       </c>
       <c r="O630">
-        <v>0.8164965809277261</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="P630" t="s">
         <v>645</v>
@@ -37657,13 +37657,13 @@
         <v>0</v>
       </c>
       <c r="M631">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="N631">
-        <v>0.4330127018922193</v>
+        <v>0.4000000000000001</v>
       </c>
       <c r="O631">
-        <v>1.732050807568877</v>
+        <v>2</v>
       </c>
       <c r="P631" t="s">
         <v>646</v>
